--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P06_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P06_trail14 Features.xlsx
@@ -5653,7 +5653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5664,29 +5664,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5707,115 +5705,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5832,72 +5820,66 @@
         <v>7.162328155553791e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.540713005202021</v>
+        <v>4.476502721601679e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>7.957528506079715</v>
+        <v>7.4527815672966e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4.476502721601679e-07</v>
+        <v>0.07552681682415667</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.4527815672966e-07</v>
+        <v>0.2853064786568709</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.07552681682415667</v>
+        <v>0.08691606470209298</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2853064786568709</v>
+        <v>1.914485490088646</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.08691606470209298</v>
+        <v>2.632828545152087</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.945042343426292</v>
+        <v>5.229633872482756</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.632828545152087</v>
+        <v>4.068262925175756e-18</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.229633872482756</v>
+        <v>11030035026.88675</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.068262925175756e-18</v>
+        <v>1.083544771082003e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>11030035026.88675</v>
+        <v>494.9516724372861</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.083544771082003e-08</v>
+        <v>0.0001055949768235829</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>494.9516724372861</v>
+        <v>9.169426651255844</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001055949768235829</v>
+        <v>1.105996481775061</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.169426651255844</v>
+        <v>0.008878255127346271</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.105996481775061</v>
+        <v>3.772991403141853</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.008878255127346271</v>
+        <v>0.9587514594954941</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.772991403141853</v>
+        <v>1.075987864182467</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9587514594954941</v>
+        <v>167</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.075987864182467</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>167</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.718100311538433</v>
       </c>
     </row>
@@ -5912,72 +5894,66 @@
         <v>5.784548285313614e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.90384010215224</v>
+        <v>3.41757113096864e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>4.771321816491525</v>
+        <v>7.49726518790991e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.41757113096864e-07</v>
+        <v>0.06209932271205859</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.49726518790991e-07</v>
+        <v>0.2707388007597467</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.06209932271205859</v>
+        <v>0.07699779686760468</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2707388007597467</v>
+        <v>1.909615166052812</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.07699779686760468</v>
+        <v>2.518545382343122</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.942047429370826</v>
+        <v>5.123257351084623</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.518545382343122</v>
+        <v>5.888482093251391e-18</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.123257351084623</v>
+        <v>7714498181.242262</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.888482093251391e-18</v>
+        <v>1.54807185491035e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>7714498181.242262</v>
+        <v>350.4440741733711</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.54807185491035e-08</v>
+        <v>0.0001152082342012436</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>350.4440741733711</v>
+        <v>9.321689158279545</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001152082342012436</v>
+        <v>1.176279366782942</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.321689158279545</v>
+        <v>0.01001089148733207</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.176279366782942</v>
+        <v>3.810230867301621</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01001089148733207</v>
+        <v>0.9584078822535305</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.810230867301621</v>
+        <v>1.091565240104142</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9584078822535305</v>
+        <v>131</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.091565240104142</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>131</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.71015949528868</v>
       </c>
     </row>
@@ -5992,72 +5968,66 @@
         <v>4.92474809890573e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.251655067933271</v>
+        <v>2.639168533122154e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.715255315999932</v>
+        <v>7.526112602687484e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.639168533122154e-07</v>
+        <v>0.04577359328377502</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.526112602687484e-07</v>
+        <v>0.2496683385295499</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.04577359328377502</v>
+        <v>0.06431064050141715</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2496683385295499</v>
+        <v>1.906717914914428</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.06431064050141715</v>
+        <v>2.438200876980959</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.939741212889227</v>
+        <v>4.884767795972787</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.438200876980959</v>
+        <v>8.714375504052401e-18</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.884767795972787</v>
+        <v>5285831910.015391</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>8.714375504052401e-18</v>
+        <v>2.26629615761235e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>5285831910.015391</v>
+        <v>243.4798169902362</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.26629615761235e-08</v>
+        <v>0.0001489968888422582</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>243.4798169902362</v>
+        <v>10.73464402813797</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001489968888422582</v>
+        <v>1.178655597261494</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.73464402813797</v>
+        <v>0.01716929627247401</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.178655597261494</v>
+        <v>3.581828820941214</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01716929627247401</v>
+        <v>0.9577055239263714</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.581828820941214</v>
+        <v>1.090697286513729</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9577055239263714</v>
+        <v>102</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.090697286513729</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>1.706250622273252</v>
       </c>
     </row>
@@ -6072,72 +6042,66 @@
         <v>4.447698921640474e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.7855255813070423</v>
+        <v>2.061109015524733e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.2406684524925384</v>
+        <v>7.543429422958208e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.061109015524733e-07</v>
+        <v>0.02844083056541892</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.543429422958208e-07</v>
+        <v>0.2231364726540346</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.02844083056541892</v>
+        <v>0.05051688382293638</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2231364726540346</v>
+        <v>1.902249048667455</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.05051688382293638</v>
+        <v>2.385714409098064</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.939429109674267</v>
+        <v>4.431372213678564</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.385714409098064</v>
+        <v>1.229050975969137e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.431372213678564</v>
+        <v>3787544935.106658</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.229050975969137e-17</v>
+        <v>3.154456331144685e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>3787544935.106658</v>
+        <v>176.3134664056437</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.154456331144685e-08</v>
+        <v>0.000193081128941534</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>176.3134664056437</v>
+        <v>12.68104831266575</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.000193081128941534</v>
+        <v>1.07220173571874</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>12.68104831266575</v>
+        <v>0.03104918062032378</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.07220173571874</v>
+        <v>3.18249441798135</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.03104918062032378</v>
+        <v>0.9565957441478324</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.18249441798135</v>
+        <v>1.114156174731853</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9565957441478324</v>
+        <v>100</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.114156174731853</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>1.726226397999369</v>
       </c>
     </row>
@@ -6152,72 +6116,66 @@
         <v>4.234550654260724e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.5784146037411362</v>
+        <v>1.622494720313797e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.9748843684929729</v>
+        <v>7.552159083666712e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.622494720313797e-07</v>
+        <v>0.01225018000971297</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7.552159083666712e-07</v>
+        <v>0.1940589116868153</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.01225018000971297</v>
+        <v>0.03775515702468227</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1940589116868153</v>
+        <v>1.895068528078146</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03775515702468227</v>
+        <v>2.389911146336308</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.925568514764354</v>
+        <v>4.389889126869198</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.389911146336308</v>
+        <v>1.252389024941888e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.389889126869198</v>
+        <v>3712270618.541423</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.252389024941888e-17</v>
+        <v>3.212922318523501e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>3712270618.541423</v>
+        <v>172.5911447239448</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.212922318523501e-08</v>
+        <v>0.0002133705027444509</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>172.5911447239448</v>
+        <v>14.10853705692542</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0002133705027444509</v>
+        <v>0.9814285885810027</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>14.10853705692542</v>
+        <v>0.04247157308416603</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>0.9814285885810027</v>
+        <v>2.956317215652079</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.04247157308416603</v>
+        <v>0.9562426846284442</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.956317215652079</v>
+        <v>1.234435720183262</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9562426846284442</v>
+        <v>100</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.234435720183262</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>1.810453722780839</v>
       </c>
     </row>
@@ -6232,72 +6190,66 @@
         <v>4.188982967948885e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.5424817249884907</v>
+        <v>1.319925057045687e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.077189406252821</v>
+        <v>7.554281997271567e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.319925057045687e-07</v>
+        <v>-0.001638010755119758</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>7.554281997271567e-07</v>
+        <v>0.1651495022151447</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.001638010755119758</v>
+        <v>0.0272413152707091</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1651495022151447</v>
+        <v>1.903380739421318</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.0272413152707091</v>
+        <v>2.210740201790582</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.931240842231671</v>
+        <v>4.413342770280153</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.210740201790582</v>
+        <v>1.239113356567251e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.413342770280153</v>
+        <v>3755324927.510658</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.239113356567251e-17</v>
+        <v>3.182654861974098e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>3755324927.510658</v>
+        <v>174.745531276131</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.182654861974098e-08</v>
+        <v>0.0001867237250467372</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>174.745531276131</v>
+        <v>11.61992138102739</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001867237250467372</v>
+        <v>1.20485236207048</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>11.61992138102739</v>
+        <v>0.02521191777751743</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.20485236207048</v>
+        <v>3.266174238720569</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02521191777751743</v>
+        <v>0.9567294790280205</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.266174238720569</v>
+        <v>1.171856565394905</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9567294790280205</v>
+        <v>95</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.171856565394905</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>1.388820326155914</v>
       </c>
     </row>
@@ -6312,72 +6264,66 @@
         <v>4.240734880830248e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.5601047784190157</v>
+        <v>1.325885623937384e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.054340099578568</v>
+        <v>7.551077174530576e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.325885623937384e-07</v>
+        <v>-0.01312156208752559</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.551077174530576e-07</v>
+        <v>0.1371501336435761</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.01312156208752559</v>
+        <v>0.01895643613497359</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1371501336435761</v>
+        <v>1.90966819366713</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01895643613497359</v>
+        <v>2.103458168496226</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.934210752152851</v>
+        <v>4.51274732857745</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.103458168496226</v>
+        <v>1.061773754357913e-17</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.51274732857745</v>
+        <v>4331603735.003683</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.061773754357913e-17</v>
+        <v>2.760428782753131e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>4331603735.003683</v>
+        <v>199.2183895427954</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.760428782753131e-08</v>
+        <v>0.0001550598883016962</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>199.2183895427954</v>
+        <v>9.289903728963296</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001550598883016962</v>
+        <v>1.437586493876233</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.289903728963296</v>
+        <v>0.01338202674933377</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.437586493876233</v>
+        <v>3.417321994477945</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01338202674933377</v>
+        <v>0.9573212837350387</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.417321994477945</v>
+        <v>1.234537438605005</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9573212837350387</v>
+        <v>106</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.234537438605005</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>106</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.9583270165344937</v>
       </c>
     </row>
@@ -6392,72 +6338,66 @@
         <v>4.342140955544241e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.5645516148580859</v>
+        <v>1.333606905706936e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.085191699660699</v>
+        <v>7.543290720910675e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.333606905706936e-07</v>
+        <v>-0.02279073947613755</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>7.543290720910675e-07</v>
+        <v>0.109370527968007</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.02279073947613755</v>
+        <v>0.0124625343186659</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.109370527968007</v>
+        <v>1.899282755055391</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.0124625343186659</v>
+        <v>2.168347330572546</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.920715486145748</v>
+        <v>5.199974012940883</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.168347330572546</v>
+        <v>1.297541074507067e-17</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.199974012940883</v>
+        <v>3465259004.151059</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.297541074507067e-17</v>
+        <v>3.425288445056162e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>3465259004.151059</v>
+        <v>155.8089912919131</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.425288445056162e-08</v>
+        <v>0.0001530380993730911</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>155.8089912919131</v>
+        <v>9.235270931243766</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001530380993730911</v>
+        <v>1.431932240776446</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.235270931243766</v>
+        <v>0.01305265456780415</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.431932240776446</v>
+        <v>3.310848976314274</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01305265456780415</v>
+        <v>0.9566094447663831</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.310848976314274</v>
+        <v>1.296489724384279</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9566094447663831</v>
+        <v>106</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.296489724384279</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>106</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.6527105876057407</v>
       </c>
     </row>
@@ -6472,72 +6412,66 @@
         <v>4.461019926777359e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.5389880927990673</v>
+        <v>1.347630994197487e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.165316576567457</v>
+        <v>7.531460562081311e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.347630994197487e-07</v>
+        <v>-0.03053330159380743</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>7.531460562081311e-07</v>
+        <v>0.08496310870063215</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.03053330159380743</v>
+        <v>0.008139520331050094</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.08496310870063215</v>
+        <v>1.897205857998646</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.008139520331050094</v>
+        <v>2.257317061747466</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.917549289926506</v>
+        <v>4.577291869783827</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.257317061747466</v>
+        <v>1.67458134619501e-17</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.577291869783827</v>
+        <v>2646110109.732543</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.67458134619501e-17</v>
+        <v>4.495811219378992e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>2646110109.732543</v>
+        <v>117.2524897244992</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.495811219378992e-08</v>
+        <v>0.0001609818190059657</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>117.2524897244992</v>
+        <v>11.08488800572444</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001609818190059657</v>
+        <v>1.215896187940836</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>11.08488800572444</v>
+        <v>0.01978059949305895</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.215896187940836</v>
+        <v>3.144028496076007</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01978059949305895</v>
+        <v>0.9584082617046258</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.144028496076007</v>
+        <v>1.296522694971213</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9584082617046258</v>
+        <v>100</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.296522694971213</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.5423744360184999</v>
       </c>
     </row>
@@ -6552,72 +6486,66 @@
         <v>4.577190277849607e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.4919955092927675</v>
+        <v>1.36614394435216e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.252960625231574</v>
+        <v>7.516221333233903e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.36614394435216e-07</v>
+        <v>-0.03651237206692027</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>7.516221333233903e-07</v>
+        <v>0.06483521042497414</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.03651237206692027</v>
+        <v>0.005530671140220984</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.06483521042497414</v>
+        <v>1.902389421417134</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.005530671140220984</v>
+        <v>2.254689564711465</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.915591734668228</v>
+        <v>4.390179901813326</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.254689564711465</v>
+        <v>1.820366466461423e-17</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.390179901813326</v>
+        <v>2459957211.787483</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.820366466461423e-17</v>
+        <v>4.850577649229911e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>2459957211.787483</v>
+        <v>110.1574649185278</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.850577649229911e-08</v>
+        <v>0.0001771275682570715</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>110.1574649185278</v>
+        <v>13.63093387700881</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001771275682570715</v>
+        <v>1.032253372394271</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>13.63093387700881</v>
+        <v>0.03291071991262708</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.032253372394271</v>
+        <v>2.863127653458509</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.03291071991262708</v>
+        <v>0.9606282170526544</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.863127653458509</v>
+        <v>1.341349093630313</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9606282170526544</v>
+        <v>70</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.341349093630313</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.5488845335367272</v>
       </c>
     </row>
@@ -6632,72 +6560,66 @@
         <v>4.681142592343013e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.4361762579828689</v>
+        <v>1.387440621113174e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.326885252189214</v>
+        <v>7.498316550942684e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.387440621113174e-07</v>
+        <v>-0.04044783256798053</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>7.498316550942684e-07</v>
+        <v>0.0521371179194376</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.04044783256798053</v>
+        <v>0.004352163726999836</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.0521371179194376</v>
+        <v>1.895523983059633</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.004352163726999836</v>
+        <v>2.273805299087622</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.909376033963518</v>
+        <v>4.268143475518341</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.273805299087622</v>
+        <v>1.925951920076687e-17</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.268143475518341</v>
+        <v>2288419814.534339</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.925951920076687e-17</v>
+        <v>5.204597092345327e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>2288419814.534339</v>
+        <v>100.859506787083</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>5.204597092345327e-08</v>
+        <v>0.0001764835381119193</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>100.859506787083</v>
+        <v>13.14140748454596</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001764835381119193</v>
+        <v>1.076207570753752</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>13.14140748454596</v>
+        <v>0.03047810534216883</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.076207570753752</v>
+        <v>2.892507935561706</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.03047810534216883</v>
+        <v>0.9602914324110761</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.892507935561706</v>
+        <v>1.325759413410368</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9602914324110761</v>
+        <v>39</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.325759413410368</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.5278498007716423</v>
       </c>
     </row>
@@ -6712,72 +6634,66 @@
         <v>4.771891150890397e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.3796012076395611</v>
+        <v>1.41118200445882e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.384283056903566</v>
+        <v>7.478552967349757e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.41118200445882e-07</v>
+        <v>-0.042980350727181</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>7.478552967349757e-07</v>
+        <v>0.04486216600466554</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.042980350727181</v>
+        <v>0.003859038534298056</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.04486216600466554</v>
+        <v>1.89916683376785</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.003859038534298056</v>
+        <v>2.286316013670305</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.914495181614545</v>
+        <v>4.185940301028054</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.286316013670305</v>
+        <v>2.002338051740643e-17</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.185940301028054</v>
+        <v>2247863471.048437</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.002338051740643e-17</v>
+        <v>5.307727852778689e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>2247863471.048437</v>
+        <v>101.1759428763894</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>5.307727852778689e-08</v>
+        <v>0.0001538452108104467</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>101.1759428763894</v>
+        <v>10.24043543024149</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001538452108104467</v>
+        <v>1.298330271141996</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.24043543024149</v>
+        <v>0.01613321153804389</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.298330271141996</v>
+        <v>3.156745038557774</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01613321153804389</v>
+        <v>0.9590914956821063</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.156745038557774</v>
+        <v>1.281824369318675</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9590914956821063</v>
+        <v>23</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.281824369318675</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.4783140540968382</v>
       </c>
     </row>
@@ -6792,72 +6708,66 @@
         <v>4.850904926371706e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.3252558250247296</v>
+        <v>1.436563890166018e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.4275403215496</v>
+        <v>7.457406209645473e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.436563890166018e-07</v>
+        <v>-0.04479937695896419</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>7.457406209645473e-07</v>
+        <v>0.04011615673664579</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.04479937695896419</v>
+        <v>0.00361590150201585</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.04011615673664579</v>
+        <v>1.90107536399971</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.00361590150201585</v>
+        <v>2.350681989504796</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.913343336571108</v>
+        <v>4.139492577151666</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.350681989504796</v>
+        <v>2.047525149088404e-17</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.139492577151666</v>
+        <v>2232687970.512991</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.047525149088404e-17</v>
+        <v>5.354236439236227e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>2232687970.512991</v>
+        <v>102.0669905267579</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>5.354236439236227e-08</v>
+        <v>0.0001452338252906594</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>102.0669905267579</v>
+        <v>8.472984195982717</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001452338252906594</v>
+        <v>1.546146392850924</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.472984195982717</v>
+        <v>0.0104265485311576</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.546146392850924</v>
+        <v>3.270800124225742</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0104265485311576</v>
+        <v>0.9591418087975211</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.270800124225742</v>
+        <v>1.321216471937206</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9591418087975211</v>
+        <v>15</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.321216471937206</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.4373931532268563</v>
       </c>
     </row>
@@ -6872,72 +6782,66 @@
         <v>4.9192386733332e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.2741736000909648</v>
+        <v>1.462760689945237e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.459232042684362</v>
+        <v>7.43511973545034e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.462760689945237e-07</v>
+        <v>-0.04642535401220986</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>7.43511973545034e-07</v>
+        <v>0.03601763298819754</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.04642535401220986</v>
+        <v>0.003452199841978444</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.03601763298819754</v>
+        <v>1.906503096362967</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.003452199841978444</v>
+        <v>2.307206605651762</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.918636289375772</v>
+        <v>4.138193699453037</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.307206605651762</v>
+        <v>2.048810686847289e-17</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.138193699453037</v>
+        <v>2248255767.861916</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.048810686847289e-17</v>
+        <v>5.321794994326553e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>2248255767.861916</v>
+        <v>103.5602912885307</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>5.321794994326553e-08</v>
+        <v>0.0001423757033537556</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>103.5602912885307</v>
+        <v>9.410127279087494</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001423757033537556</v>
+        <v>1.403183377979259</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.410127279087494</v>
+        <v>0.01260743906612672</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.403183377979259</v>
+        <v>3.277695874779258</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01260743906612672</v>
+        <v>0.9606954100562358</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.277695874779258</v>
+        <v>1.315629044177534</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9606954100562358</v>
+        <v>50</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.315629044177534</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.4507511239100528</v>
       </c>
     </row>
@@ -6952,72 +6856,66 @@
         <v>4.97536186917629e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.2274066483354261</v>
+        <v>1.488643942826231e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.481905979705624</v>
+        <v>7.41168112797219e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.488643942826231e-07</v>
+        <v>-0.04834185484892291</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>7.41168112797219e-07</v>
+        <v>0.03056606993943719</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.04834185484892291</v>
+        <v>0.003270722594640331</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.03056606993943719</v>
+        <v>1.908386937433815</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.003270722594640331</v>
+        <v>2.221778279633759</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.922454565882498</v>
+        <v>4.179302886095836</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.221778279633759</v>
+        <v>2.008703181269413e-17</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.179302886095836</v>
+        <v>2292260328.912907</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.008703181269413e-17</v>
+        <v>5.223096408729629e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>2292260328.912907</v>
+        <v>105.5464532637539</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>5.223096408729629e-08</v>
+        <v>0.0001584510724184679</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>105.5464532637539</v>
+        <v>12.50735111603434</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001584510724184679</v>
+        <v>1.126447601887825</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>12.50735111603434</v>
+        <v>0.02478710843338622</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.126447601887825</v>
+        <v>3.077446422997856</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02478710843338622</v>
+        <v>0.9609884267043373</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.077446422997856</v>
+        <v>1.274085839526954</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9609884267043373</v>
+        <v>60</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.274085839526954</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.5108420544271077</v>
       </c>
     </row>
@@ -7032,72 +6930,66 @@
         <v>5.016974376733943e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.186325830273868</v>
+        <v>1.513281330684099e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.4992392024469</v>
+        <v>7.38706424143573e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.513281330684099e-07</v>
+        <v>-0.05000889124224928</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>7.38706424143573e-07</v>
+        <v>0.02565398286807637</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05000889124224928</v>
+        <v>0.003159078868098298</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.02565398286807637</v>
+        <v>1.909906840410428</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.003159078868098298</v>
+        <v>2.132976748177237</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.921980390114177</v>
+        <v>4.275813749021797</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.132976748177237</v>
+        <v>1.919048285460251e-17</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.275813749021797</v>
+        <v>2364866601.641446</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.919048285460251e-17</v>
+        <v>5.061496270151428e-08</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>2364866601.641446</v>
+        <v>107.3245801056742</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>5.061496270151428e-08</v>
+        <v>0.000173601124586197</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>107.3245801056742</v>
+        <v>13.79278121754452</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.000173601124586197</v>
+        <v>1.038142336854021</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>13.79278121754452</v>
+        <v>0.03302601920312571</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.038142336854021</v>
+        <v>2.881268364516679</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.03302601920312571</v>
+        <v>0.9610973823424752</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.881268364516679</v>
+        <v>1.330433948214722</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9610973823424752</v>
+        <v>60</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.330433948214722</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.5801508254224467</v>
       </c>
     </row>
@@ -7112,72 +7004,66 @@
         <v>5.0472892046591e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.149590092978429</v>
+        <v>1.535003557794608e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.513590493672394</v>
+        <v>7.361686710162995e-07</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.535003557794608e-07</v>
+        <v>-0.05068394096876288</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>7.361686710162995e-07</v>
+        <v>0.02402562781042366</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05068394096876288</v>
+        <v>0.003146315881157584</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.02402562781042366</v>
+        <v>1.914112619148641</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.003146315881157584</v>
+        <v>2.089345833388384</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.924087399730567</v>
+        <v>4.465555031410304</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.089345833388384</v>
+        <v>1.759432336311226e-17</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.465555031410304</v>
+        <v>2557387825.263003</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.759432336311226e-17</v>
+        <v>4.692589691806965e-08</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>2557387825.263003</v>
+        <v>115.0709652779401</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>4.692589691806965e-08</v>
+        <v>0.0001578363683789698</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>115.0709652779401</v>
+        <v>11.69465952274035</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001578363683789698</v>
+        <v>1.157342021793387</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>11.69465952274035</v>
+        <v>0.02158650060505634</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.157342021793387</v>
+        <v>3.100387589153778</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.02158650060505634</v>
+        <v>0.9604122189125242</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.100387589153778</v>
+        <v>1.338088440789153</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9604122189125242</v>
+        <v>60</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.338088440789153</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.601824162678398</v>
       </c>
     </row>
@@ -7192,72 +7078,66 @@
         <v>5.070687108080461e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.1144086080343173</v>
+        <v>1.543412406157087e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.524736533011868</v>
+        <v>7.336013309115885e-07</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.543412406157087e-07</v>
+        <v>-0.05072737576251399</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>7.336013309115885e-07</v>
+        <v>0.02364457723399331</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.05072737576251399</v>
+        <v>0.003132538594718583</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.02364457723399331</v>
+        <v>1.916094890127358</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.003132538594718583</v>
+        <v>1.989647208177237</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.923588565767695</v>
+        <v>4.913805919845284</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.989647208177237</v>
+        <v>1.453073099090282e-17</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.913805919845284</v>
+        <v>3029919910.739821</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.453073099090282e-17</v>
+        <v>3.953891994230857e-08</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>3029919910.739821</v>
+        <v>133.3981358892848</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>3.953891994230857e-08</v>
+        <v>0.0001458075141961765</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>133.3981358892848</v>
+        <v>9.44771680616047</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001458075141961765</v>
+        <v>1.374619430926153</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.44771680616047</v>
+        <v>0.01301468435773144</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.374619430926153</v>
+        <v>3.276881477637869</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01301468435773144</v>
+        <v>0.9606722385824564</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.276881477637869</v>
+        <v>1.301161034168453</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9606722385824564</v>
+        <v>60</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.301161034168453</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.6495822542853668</v>
       </c>
     </row>
@@ -7272,72 +7152,66 @@
         <v>5.089024453845415e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.07910993218609766</v>
+        <v>1.543093083732517e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.53218212252419</v>
+        <v>7.310287296079134e-07</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.543093083732517e-07</v>
+        <v>-0.05053465283810464</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>7.310287296079134e-07</v>
+        <v>0.02356498657948599</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.05053465283810464</v>
+        <v>0.003109229750860651</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.02356498657948599</v>
+        <v>1.917511196911453</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.003109229750860651</v>
+        <v>2.038291172668465</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.919744772069248</v>
+        <v>5.160160446094768</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.038291172668465</v>
+        <v>8.927955408655887e-18</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>5.160160446094768</v>
+        <v>4894830457.399014</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>8.927955408655887e-18</v>
+        <v>2.451936578279049e-08</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>4894830457.399014</v>
+        <v>213.9081441849497</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>2.451936578279049e-08</v>
+        <v>0.0001382109772990952</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>213.9081441849497</v>
+        <v>9.120272722013977</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001382109772990952</v>
+        <v>1.42442835914536</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.120272722013977</v>
+        <v>0.01149630264407737</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.42442835914536</v>
+        <v>3.419468974645867</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01149630264407737</v>
+        <v>0.9615269679185902</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.419468974645867</v>
+        <v>1.31349000600341</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9615269679185902</v>
+        <v>65</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.31349000600341</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.8453512123969108</v>
       </c>
     </row>
@@ -7352,72 +7226,66 @@
         <v>5.103431129939817e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.04329204209847771</v>
+        <v>1.542342708135389e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.53517386444044</v>
+        <v>7.28457744068734e-07</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.542342708135389e-07</v>
+        <v>-0.05036817134316549</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>7.28457744068734e-07</v>
+        <v>0.02351203600315678</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.05036817134316549</v>
+        <v>0.003089886340415919</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.02351203600315678</v>
+        <v>1.921902521299359</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.003089886340415919</v>
+        <v>2.403582519971204</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.92753484901643</v>
+        <v>4.448443571010838</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.403582519971204</v>
+        <v>8.482910207443379e-18</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.448443571010838</v>
+        <v>5197629820.138111</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>8.482910207443379e-18</v>
+        <v>2.313912779189274e-08</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>5197629820.138111</v>
+        <v>229.1688370255432</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.313912779189274e-08</v>
+        <v>0.0001708212007589137</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>229.1688370255432</v>
+        <v>9.820966214569573</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001708212007589137</v>
+        <v>1.497346219464481</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.820966214569573</v>
+        <v>0.01647594010022096</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.497346219464481</v>
+        <v>3.371989677310594</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01647594010022096</v>
+        <v>0.9614130763228323</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.371989677310594</v>
+        <v>1.288656236468739</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9614130763228323</v>
+        <v>65</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.288656236468739</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>1.029028887669206</v>
       </c>
     </row>
@@ -7432,72 +7300,66 @@
         <v>5.11514564521661e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.007181298403310513</v>
+        <v>1.543320529852874e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.532768124713481</v>
+        <v>7.258865510320591e-07</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.543320529852874e-07</v>
+        <v>-0.05028483064986562</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>7.258865510320591e-07</v>
+        <v>0.02344617259467337</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.05028483064986562</v>
+        <v>0.003078391955227849</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.02344617259467337</v>
+        <v>1.918548711181536</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.003078391955227849</v>
+        <v>2.386446919724516</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.92441545295463</v>
+        <v>4.530979143632967</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.386446919724516</v>
+        <v>8.176678377660654e-18</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.530979143632967</v>
+        <v>5564409326.97016</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>8.176678377660654e-18</v>
+        <v>2.164260338440218e-08</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>5564409326.97016</v>
+        <v>253.1716402392611</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>2.164260338440218e-08</v>
+        <v>0.0001746453896639394</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>253.1716402392611</v>
+        <v>10.16241668002799</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001746453896639394</v>
+        <v>1.369951813755043</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>10.16241668002799</v>
+        <v>0.0180364524556345</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.369951813755043</v>
+        <v>3.299040167923628</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.0180364524556345</v>
+        <v>0.9612662155465739</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.299040167923628</v>
+        <v>1.264054888454954</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9612662155465739</v>
+        <v>77</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.264054888454954</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>1.168198170327538</v>
       </c>
     </row>
@@ -7512,72 +7374,66 @@
         <v>5.124548622354434e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.02898612842203457</v>
+        <v>1.546118327860654e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.524647317576748</v>
+        <v>7.233124156143977e-07</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.546118327860654e-07</v>
+        <v>-0.05028332274846049</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>7.233124156143977e-07</v>
+        <v>0.02336611117455691</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.05028332274846049</v>
+        <v>0.003074509014112144</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.02336611117455691</v>
+        <v>1.911786578068282</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.003074509014112144</v>
+        <v>2.605987862975127</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.925382804268438</v>
+        <v>4.59879109030539</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.605987862975127</v>
+        <v>7.937316152959445e-18</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.59879109030539</v>
+        <v>5790886656.415585</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>7.937316152959445e-18</v>
+        <v>2.073763182591451e-08</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>5790886656.415585</v>
+        <v>266.1728829285379</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>2.073763182591451e-08</v>
+        <v>0.0001455181680411425</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>266.1728829285379</v>
+        <v>9.993831246455427</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001455181680411425</v>
+        <v>1.150751244303766</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.993831246455427</v>
+        <v>0.01453386902729475</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.150751244303766</v>
+        <v>3.275603167947793</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01453386902729475</v>
+        <v>0.961891847478735</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.275603167947793</v>
+        <v>1.249533663441503</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.961891847478735</v>
+        <v>84</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.249533663441503</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>1.175096559873822</v>
       </c>
     </row>
@@ -7592,72 +7448,66 @@
         <v>5.131254745173734e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.06481280218515019</v>
+        <v>1.554028231803187e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.510984913702569</v>
+        <v>7.207299702940562e-07</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.554028231803187e-07</v>
+        <v>-0.0504742817321318</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>7.207299702940562e-07</v>
+        <v>0.0232059849689589</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.0504742817321318</v>
+        <v>0.003086297231550681</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.0232059849689589</v>
+        <v>1.91693801029353</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.003086297231550681</v>
+        <v>2.145891189035527</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.932537788224509</v>
+        <v>4.931512461152609</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.145891189035527</v>
+        <v>6.89208115357062e-18</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.931512461152609</v>
+        <v>6687638529.011449</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>6.89208115357062e-18</v>
+        <v>1.804034443228667e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>6687638529.011449</v>
+        <v>308.2449462344065</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.804034443228667e-08</v>
+        <v>0.0001377805298179677</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>308.2449462344065</v>
+        <v>9.993506786054883</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001377805298179677</v>
+        <v>1.103766480516434</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.993506786054883</v>
+        <v>0.01376016602172409</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.103766480516434</v>
+        <v>3.172594400006246</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01376016602172409</v>
+        <v>0.9623679438578268</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.172594400006246</v>
+        <v>1.202693971506138</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9623679438578268</v>
+        <v>84</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.202693971506138</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>1.076841618542317</v>
       </c>
     </row>
@@ -7672,72 +7522,66 @@
         <v>5.13472890897513e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.0994603838995473</v>
+        <v>1.569202296078513e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.492089553955133</v>
+        <v>7.181281950901571e-07</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.569202296078513e-07</v>
+        <v>-0.05093220703432866</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>7.181281950901571e-07</v>
+        <v>0.02289155593349645</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.05093220703432866</v>
+        <v>0.003118250344135801</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.02289155593349645</v>
+        <v>1.919234823099314</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.003118250344135801</v>
+        <v>2.355702467742212</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.935130872907306</v>
+        <v>4.463049148424111</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>2.355702467742212</v>
+        <v>5.062734426483575e-18</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.463049148424111</v>
+        <v>9122351787.199936</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>5.062734426483575e-18</v>
+        <v>1.323612517100517e-08</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>9122351787.199936</v>
+        <v>421.3071003697495</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>1.323612517100517e-08</v>
+        <v>0.0001268650885377833</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>421.3071003697495</v>
+        <v>9.988627707526476</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001268650885377833</v>
+        <v>1.08824815686819</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.988627707526476</v>
+        <v>0.01265767032328732</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.08824815686819</v>
+        <v>3.246073045855506</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01265767032328732</v>
+        <v>0.9622510665459967</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.246073045855506</v>
+        <v>1.174747500846404</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9622510665459967</v>
+        <v>88</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.174747500846404</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>1.110285034916369</v>
       </c>
     </row>
@@ -7752,72 +7596,66 @@
         <v>5.134148010432111e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.1321346741374597</v>
+        <v>1.587508783765865e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.468694998007641</v>
+        <v>7.154974412325552e-07</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.587508783765865e-07</v>
+        <v>-0.05153214690678126</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>7.154974412325552e-07</v>
+        <v>0.02245484416687735</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.05153214690678126</v>
+        <v>0.003159933529177156</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.02245484416687735</v>
+        <v>1.919716160829555</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.003159933529177156</v>
+        <v>2.463543655138145</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.936505264709569</v>
+        <v>4.6574368866985</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>2.463543655138145</v>
+        <v>4.648946286312905e-18</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.6574368866985</v>
+        <v>9847761308.93903</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>4.648946286312905e-18</v>
+        <v>1.225261147284086e-08</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>9847761308.93903</v>
+        <v>450.8473855395593</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1.225261147284086e-08</v>
+        <v>0.0001282420392996336</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>450.8473855395593</v>
+        <v>9.316699773679003</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001282420392996336</v>
+        <v>1.484096497132643</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>9.316699773679003</v>
+        <v>0.0111315237458816</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.484096497132643</v>
+        <v>3.534496975338181</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.0111315237458816</v>
+        <v>0.9615589488256016</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.534496975338181</v>
+        <v>1.190685694158961</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9615589488256016</v>
+        <v>105</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.190685694158961</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>105</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>1.132274459485249</v>
       </c>
     </row>
@@ -7832,72 +7670,66 @@
         <v>5.129206048878838e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.1627888911246802</v>
+        <v>1.601325297890074e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.441454859596828</v>
+        <v>7.128391313155233e-07</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.601325297890074e-07</v>
+        <v>-0.05203098052558117</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>7.128391313155233e-07</v>
+        <v>0.02216177775090403</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.05203098052558117</v>
+        <v>0.003198526358688992</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.02216177775090403</v>
+        <v>1.927221083143483</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.003198526358688992</v>
+        <v>2.517768814277982</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.938661506411198</v>
+        <v>4.624061060275164</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>2.517768814277982</v>
+        <v>4.716299373834562e-18</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.624061060275164</v>
+        <v>9787663060.301126</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>4.716299373834562e-18</v>
+        <v>1.236049284970304e-08</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>9787663060.301126</v>
+        <v>451.8136895450728</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>1.236049284970304e-08</v>
+        <v>0.0001436043797490108</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>451.8136895450728</v>
+        <v>8.556447399021799</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001436043797490108</v>
+        <v>1.904974642253816</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>8.556447399021799</v>
+        <v>0.01051367759809753</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.904974642253816</v>
+        <v>3.589515696295142</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01051367759809753</v>
+        <v>0.9617091468918018</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.589515696295142</v>
+        <v>1.206077173794568</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9617091468918018</v>
+        <v>105</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.206077173794568</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>105</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>1.080964113889733</v>
       </c>
     </row>
@@ -7912,72 +7744,66 @@
         <v>5.120083770653523e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.1920116031508896</v>
+        <v>1.609819705045952e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.410646049293748</v>
+        <v>7.101627256623692e-07</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.609819705045952e-07</v>
+        <v>-0.05239973046135411</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>7.101627256623692e-07</v>
+        <v>0.02199858562461237</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.05239973046135411</v>
+        <v>0.003229869988460893</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.02199858562461237</v>
+        <v>1.927568697420287</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.003229869988460893</v>
+        <v>2.658289410433679</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.939175741491052</v>
+        <v>4.449791955211412</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>2.658289410433679</v>
+        <v>5.092946009593708e-18</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.449791955211412</v>
+        <v>8903618764.819952</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>5.092946009593708e-18</v>
+        <v>1.358278203436491e-08</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>8903618764.819952</v>
+        <v>403.7403772089023</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1.358278203436491e-08</v>
+        <v>0.0001245051839045753</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>403.7403772089023</v>
+        <v>7.686041479632473</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001245051839045753</v>
+        <v>1.643295087538619</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>7.686041479632473</v>
+        <v>0.007355172826889432</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.643295087538619</v>
+        <v>3.558378199010985</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.007355172826889432</v>
+        <v>0.9610890729343151</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.558378199010985</v>
+        <v>1.203611001312703</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9610890729343151</v>
+        <v>105</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.203611001312703</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>105</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.9886543586244574</v>
       </c>
     </row>
@@ -7992,72 +7818,66 @@
         <v>5.106017464357218e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.220151417266149</v>
+        <v>1.616338801017581e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.377013820755904</v>
+        <v>7.074739529428969e-07</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.616338801017581e-07</v>
+        <v>-0.05275678348112947</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>7.074739529428969e-07</v>
+        <v>0.02187083372768354</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.05275678348112947</v>
+        <v>0.003261823794923241</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.02187083372768354</v>
+        <v>1.920287721784395</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.003261823794923241</v>
+        <v>2.909147326326454</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.937302573013039</v>
+        <v>4.503012837427727</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>2.909147326326454</v>
+        <v>4.973270885448969e-18</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.503012837427727</v>
+        <v>8912046983.51123</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>4.973270885448969e-18</v>
+        <v>1.34991365986523e-08</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>8912046983.51123</v>
+        <v>394.9999584461792</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>1.34991365986523e-08</v>
+        <v>0.0001232601121220432</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>394.9999584461792</v>
+        <v>8.781685283476964</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001232601121220432</v>
+        <v>1.157869471300999</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>8.781685283476964</v>
+        <v>0.009505572885114428</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.157869471300999</v>
+        <v>3.294170268315413</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.009505572885114428</v>
+        <v>0.9606004766762972</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.294170268315413</v>
+        <v>1.208553976468064</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9606004766762972</v>
+        <v>103</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.208553976468064</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>103</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.9085054993235537</v>
       </c>
     </row>
@@ -8072,72 +7892,66 @@
         <v>5.086687652119885e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.2473447536826494</v>
+        <v>1.619721297351717e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.340934067840481</v>
+        <v>7.047768005144335e-07</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.619721297351717e-07</v>
+        <v>-0.05306810674234329</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>7.047768005144335e-07</v>
+        <v>0.02185882116753009</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.05306810674234329</v>
+        <v>0.003294248117094598</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.02185882116753009</v>
+        <v>1.919189228367059</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.003294248117094598</v>
+        <v>2.766696073088844</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.935969487362169</v>
+        <v>4.49003514562609</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>2.766696073088844</v>
+        <v>5.002061239194614e-18</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.49003514562609</v>
+        <v>8777056554.030149</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>5.002061239194614e-18</v>
+        <v>1.37149255900077e-08</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>8777056554.030149</v>
+        <v>385.3423998735191</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>1.37149255900077e-08</v>
+        <v>0.0001266296492362743</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>385.3423998735191</v>
+        <v>9.347465992462762</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001266296492362743</v>
+        <v>1.147787925083224</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.347465992462762</v>
+        <v>0.011064280858391</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.147787925083224</v>
+        <v>3.168988858252258</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.011064280858391</v>
+        <v>0.9616113587891754</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.168988858252258</v>
+        <v>1.211706357320511</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9616113587891754</v>
+        <v>68</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.211706357320511</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.9043426777336721</v>
       </c>
     </row>
@@ -8152,72 +7966,66 @@
         <v>5.062055061049401e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.2738291099944419</v>
+        <v>1.619632761460215e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.302508307255339</v>
+        <v>7.020765943068076e-07</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.619632761460215e-07</v>
+        <v>-0.05332321312491977</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>7.020765943068076e-07</v>
+        <v>0.02196881357858591</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.05332321312491977</v>
+        <v>0.003326225938050882</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.02196881357858591</v>
+        <v>1.91848751372805</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.003326225938050882</v>
+        <v>2.640992906984107</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.935430316709413</v>
+        <v>4.483836849862788</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>2.640992906984107</v>
+        <v>5.513443499887453e-18</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.483836849862788</v>
+        <v>8122774792.777088</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>5.513443499887453e-18</v>
+        <v>1.481720221066275e-08</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>8122774792.777088</v>
+        <v>363.7740818399735</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.481720221066275e-08</v>
+        <v>0.0001151236739598562</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>363.7740818399735</v>
+        <v>8.859306639339341</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001151236739598562</v>
+        <v>1.184389393810744</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>8.859306639339341</v>
+        <v>0.009035747961868764</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.184389393810744</v>
+        <v>3.46363478614876</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.009035747961868764</v>
+        <v>0.9607715826718968</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.46363478614876</v>
+        <v>1.219502649359779</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9607715826718968</v>
+        <v>58</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.219502649359779</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>1.057871081858344</v>
       </c>
     </row>
@@ -8232,72 +8040,66 @@
         <v>5.031540669168184e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.3000521778553931</v>
+        <v>1.614608998877407e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.262061083083226</v>
+        <v>6.993807886642977e-07</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.614608998877407e-07</v>
+        <v>-0.05347927913934111</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>6.993807886642977e-07</v>
+        <v>0.02228638951372877</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.05347927913934111</v>
+        <v>0.003356997880787112</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.02228638951372877</v>
+        <v>1.91435896371515</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.003356997880787112</v>
+        <v>2.523471681828513</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.925778314045636</v>
+        <v>4.646895807555225</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>2.523471681828513</v>
+        <v>7.142504416298011e-18</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.646895807555225</v>
+        <v>6335388078.518487</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>7.142504416298011e-18</v>
+        <v>1.901777325076889e-08</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>6335388078.518487</v>
+        <v>286.6797147456444</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.901777325076889e-08</v>
+        <v>0.0001078979190064179</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>286.6797147456444</v>
+        <v>8.419119500800971</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001078979190064179</v>
+        <v>1.965039851782217</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>8.419119500800971</v>
+        <v>0.007647974240811128</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.965039851782217</v>
+        <v>3.929447115084627</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.007647974240811128</v>
+        <v>0.9620698808041511</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.929447115084627</v>
+        <v>1.23325840772476</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9620698808041511</v>
+        <v>58</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.23325840772476</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>1.460874997798698</v>
       </c>
     </row>
@@ -8312,72 +8114,66 @@
         <v>4.993321092588865e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.326381355542202</v>
+        <v>1.606495490849541e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.220659921414129</v>
+        <v>6.966963156114466e-07</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1.606495490849541e-07</v>
+        <v>-0.05361626982094844</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>6.966963156114466e-07</v>
+        <v>0.02286431584092059</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.05361626982094844</v>
+        <v>0.003397821845526555</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.02286431584092059</v>
+        <v>1.920229955541611</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.003397821845526555</v>
+        <v>2.380381784512719</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.930318147200655</v>
+        <v>4.469660009113325</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>2.380381784512719</v>
+        <v>9.106568787115272e-18</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.469660009113325</v>
+        <v>5019089327.43084</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>9.106568787115272e-18</v>
+        <v>2.40198786682859e-08</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>5019089327.43084</v>
+        <v>229.4059208670889</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>2.40198786682859e-08</v>
+        <v>0.0001105074910188269</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>229.4059208670889</v>
+        <v>9.540887620842227</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001105074910188269</v>
+        <v>2.05796902732452</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>9.540887620842227</v>
+        <v>0.01005933519006763</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>2.05796902732452</v>
+        <v>4.120823721232418</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.01005933519006763</v>
+        <v>0.9620619944775837</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>4.120823721232418</v>
+        <v>1.235332943486469</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9620619944775837</v>
+        <v>58</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.235332943486469</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>1.813543163777724</v>
       </c>
     </row>
@@ -8392,72 +8188,66 @@
         <v>4.944299405481615e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.35261821798163</v>
+        <v>1.597577220851677e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.180509598960136</v>
+        <v>6.940267726817556e-07</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1.597577220851677e-07</v>
+        <v>-0.05378588275017532</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>6.940267726817556e-07</v>
+        <v>0.02380678565583202</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.05378588275017532</v>
+        <v>0.003460024503957984</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.02380678565583202</v>
+        <v>1.921636374432616</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.003460024503957984</v>
+        <v>2.439565957997075</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.930554418656882</v>
+        <v>4.435111600856341</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>2.439565957997075</v>
+        <v>1.191382981674555e-17</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.435111600856341</v>
+        <v>3951273972.475737</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>1.191382981674555e-17</v>
+        <v>3.058423986302648e-08</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>3951273972.475737</v>
+        <v>186.0054543929987</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>3.058423986302648e-08</v>
+        <v>0.0001051896335747101</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>186.0054543929987</v>
+        <v>8.896161813424326</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001051896335747101</v>
+        <v>1.169588615459828</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>8.896161813424326</v>
+        <v>0.008324885898649546</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.169588615459828</v>
+        <v>3.725521327944744</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.008324885898649546</v>
+        <v>0.9611072682163589</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.725521327944744</v>
+        <v>1.223177311202292</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9611072682163589</v>
+        <v>58</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.223177311202292</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>1.475246011525588</v>
       </c>
     </row>
@@ -8472,72 +8262,66 @@
         <v>4.88242640172861e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.379091883915343</v>
+        <v>1.582441361388335e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.142966226889471</v>
+        <v>6.91385832928811e-07</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1.582441361388335e-07</v>
+        <v>-0.05357753225636271</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>6.91385832928811e-07</v>
+        <v>0.02588429575385598</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.05357753225636271</v>
+        <v>0.003540733676991279</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.02588429575385598</v>
+        <v>1.923296586625035</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.003540733676991279</v>
+        <v>2.050002664748178</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.936653990033271</v>
+        <v>4.369297619860028</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>2.050002664748178</v>
+        <v>1.742215893596994e-17</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.369297619860028</v>
+        <v>2710685029.909055</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>1.742215893596994e-17</v>
+        <v>4.459308053917208e-08</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>2710685029.909055</v>
+        <v>128.0147716910201</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>4.459308053917208e-08</v>
+        <v>0.0001583537002503707</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>128.0147716910201</v>
+        <v>10.81113973578617</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001583537002503707</v>
+        <v>1.105398286317509</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>10.81113973578617</v>
+        <v>0.01850849804494343</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.105398286317509</v>
+        <v>3.070932711693719</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01850849804494343</v>
+        <v>0.9604842774301363</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.070932711693719</v>
+        <v>1.167403951660869</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9604842774301363</v>
+        <v>53</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.167403951660869</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.9529290366054768</v>
       </c>
     </row>
@@ -8552,72 +8336,66 @@
         <v>4.808283957245771e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.4077366278703278</v>
+        <v>1.55797734740831e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.105688303992921</v>
+        <v>6.888048821706937e-07</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1.55797734740831e-07</v>
+        <v>-0.05288618932566792</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>6.888048821706937e-07</v>
+        <v>0.02893680291978711</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.05288618932566792</v>
+        <v>0.003634341167018851</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.02893680291978711</v>
+        <v>1.895579357377978</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.003634341167018851</v>
+        <v>2.040875290467997</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.886848700860152</v>
+        <v>4.92301347161372</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>2.040875290467997</v>
+        <v>1.753194775732222e-17</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.92301347161372</v>
+        <v>2690082875.056046</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>1.753194775732222e-17</v>
+        <v>4.470467265085529e-08</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>2690082875.056046</v>
+        <v>126.8707442181765</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>4.470467265085529e-08</v>
+        <v>0.0001814208800387689</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>126.8707442181765</v>
+        <v>12.25280550738347</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001814208800387689</v>
+        <v>1.040728994224609</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>12.25280550738347</v>
+        <v>0.02723694219041062</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.040728994224609</v>
+        <v>2.770227773814917</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.02723694219041062</v>
+        <v>0.9606862714726372</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.770227773814917</v>
+        <v>1.36638602375994</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9606862714726372</v>
+        <v>56</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.36638602375994</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.9454516462593481</v>
       </c>
     </row>
@@ -8632,72 +8410,66 @@
         <v>4.724217233445923e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.4392368263433144</v>
+        <v>1.52919720115322e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.065133795891005</v>
+        <v>6.862981551531387e-07</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1.52919720115322e-07</v>
+        <v>-0.05234376526083333</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>6.862981551531387e-07</v>
+        <v>0.03125923441983718</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.05234376526083333</v>
+        <v>0.0037170979359494</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.03125923441983718</v>
+        <v>1.884475576019484</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.0037170979359494</v>
+        <v>2.098787635174693</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.870434846205334</v>
+        <v>5.021570659912585</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>2.098787635174693</v>
+        <v>2.980983373592097e-17</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>5.021570659912585</v>
+        <v>1520490565.513085</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>2.980983373592097e-17</v>
+        <v>7.869505759398619e-08</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>1520490565.513085</v>
+        <v>68.9171030135433</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>7.869505759398619e-08</v>
+        <v>0.000197967504412611</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>68.9171030135433</v>
+        <v>9.928325925274269</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.000197967504412611</v>
+        <v>1.535833107349838</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>9.928325925274269</v>
+        <v>0.01951398468048651</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.535833107349838</v>
+        <v>3.111546898537525</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.01951398468048651</v>
+        <v>0.961417489134368</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.111546898537525</v>
+        <v>1.536865725250381</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.961417489134368</v>
+        <v>44</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.536865725250381</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.6875637121720936</v>
       </c>
     </row>
@@ -8712,72 +8484,66 @@
         <v>4.633506240903122e-08</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.4723934633465229</v>
+        <v>1.499937012685894e-07</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-1.019497419478885</v>
+        <v>6.838519851171503e-07</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>1.499937012685894e-07</v>
+        <v>-0.05228906136556255</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>6.838519851171503e-07</v>
+        <v>0.03262404653418788</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>-0.05228906136556255</v>
+        <v>0.003798575498624527</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.03262404653418788</v>
+        <v>1.887729929827905</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.003798575498624527</v>
+        <v>2.103832344037961</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.86701244684172</v>
+        <v>4.237653577011791</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>2.103832344037961</v>
+        <v>4.185889971710037e-17</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>4.237653577011791</v>
+        <v>1065326579.107044</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>4.185889971710037e-17</v>
+        <v>1.123334996358173e-07</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>1065326579.107044</v>
+        <v>47.50653261169839</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>1.123334996358173e-07</v>
+        <v>0.0001875475066547232</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>47.50653261169839</v>
+        <v>9.211330145411154</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001875475066547232</v>
+        <v>1.753373847485315</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>9.211330145411154</v>
+        <v>0.01591314394474378</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.753373847485315</v>
+        <v>3.104736999405141</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.01591314394474378</v>
+        <v>0.9620200710237506</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>3.104736999405141</v>
+        <v>1.525625020079193</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9620200710237506</v>
+        <v>26</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.525625020079193</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.3736391630229217</v>
       </c>
     </row>
@@ -8792,72 +8558,66 @@
         <v>4.538339762763246e-08</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.5056052859461984</v>
+        <v>1.472839952148224e-07</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-0.9690823556335921</v>
+        <v>6.814458953152137e-07</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1.472839952148224e-07</v>
+        <v>-0.05270652268786011</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>6.814458953152137e-07</v>
+        <v>0.03358943626339461</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>-0.05270652268786011</v>
+        <v>0.003906346479501093</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.03358943626339461</v>
+        <v>1.88800059820785</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.003906346479501093</v>
+        <v>2.017936830551124</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.867720168959684</v>
+        <v>4.081353779304337</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>2.017936830551124</v>
+        <v>4.512635196303223e-17</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>4.081353779304337</v>
+        <v>993216794.1918379</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>4.512635196303223e-17</v>
+        <v>1.202901422740086e-07</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>993216794.1918379</v>
+        <v>44.51622564589672</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>1.202901422740086e-07</v>
+        <v>0.0001470193327714492</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>44.51622564589672</v>
+        <v>9.478857484762472</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001470193327714492</v>
+        <v>1.266267337135997</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>9.478857484762472</v>
+        <v>0.01320950168995659</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.266267337135997</v>
+        <v>3.023097469082018</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.01320950168995659</v>
+        <v>0.9598085840270648</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>3.023097469082018</v>
+        <v>1.512834615795373</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9598085840270648</v>
+        <v>26</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.512834615795373</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.2847091648277705</v>
       </c>
     </row>
@@ -8872,72 +8632,66 @@
         <v>4.438974534725467e-08</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.5371156871794065</v>
+        <v>1.450182285359947e-07</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-0.9162401457845375</v>
+        <v>6.79062863562775e-07</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>1.450182285359947e-07</v>
+        <v>-0.05353003106858362</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>6.79062863562775e-07</v>
+        <v>0.03447680337553041</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>-0.05353003106858362</v>
+        <v>0.004054292069812449</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.03447680337553041</v>
+        <v>1.888334723816956</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.004054292069812449</v>
+        <v>2.091918248386993</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.865588308905256</v>
+        <v>4.061370937767217</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>2.091918248386993</v>
+        <v>4.557150763364049e-17</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>4.061370937767217</v>
+        <v>984086011.3766561</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>4.557150763364049e-17</v>
+        <v>1.214345992002417e-07</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>984086011.3766561</v>
+        <v>44.13259993929054</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>1.214345992002417e-07</v>
+        <v>0.0001494510252196982</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>44.13259993929054</v>
+        <v>10.16847607155422</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0001494510252196982</v>
+        <v>1.139886009943222</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>10.16847607155422</v>
+        <v>0.01545292300014541</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.139886009943222</v>
+        <v>2.764470756053675</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.01545292300014541</v>
+        <v>0.9603881673356325</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>2.764470756053675</v>
+        <v>1.54397069726752</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9603881673356325</v>
+        <v>22</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.54397069726752</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.2522237551448424</v>
       </c>
     </row>
@@ -8952,72 +8706,66 @@
         <v>4.333987356317311e-08</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.56463894955334</v>
+        <v>1.433015795965272e-07</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-0.8661129953212741</v>
+        <v>6.766892737023358e-07</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>1.433015795965272e-07</v>
+        <v>-0.05472424022075226</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>6.766892737023358e-07</v>
+        <v>0.03536323408423372</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>-0.05472424022075226</v>
+        <v>0.004245519633111697</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.03536323408423372</v>
+        <v>1.885388880149404</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.004245519633111697</v>
+        <v>2.056777469723204</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.866687475076259</v>
+        <v>4.058125196568998</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>2.056777469723204</v>
+        <v>4.564443415222741e-17</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>4.058125196568998</v>
+        <v>990520641.881071</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>4.564443415222741e-17</v>
+        <v>1.198750487807274e-07</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>990520641.881071</v>
+        <v>44.78317580537584</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>1.198750487807274e-07</v>
+        <v>0.0001541578776615058</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>44.78317580537584</v>
+        <v>10.02066940158571</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0001541578776615058</v>
+        <v>1.159746270763515</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>10.02066940158571</v>
+        <v>0.0154795806477404</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.159746270763515</v>
+        <v>2.717055739179674</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.0154795806477404</v>
+        <v>0.9591847414690434</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>2.717055739179674</v>
+        <v>1.535181742049041</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9591847414690434</v>
+        <v>17</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.535181742049041</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.2388825673001986</v>
       </c>
     </row>
@@ -9032,72 +8780,66 @@
         <v>4.222541351066238e-08</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.5864336036330429</v>
+        <v>1.414229245791287e-07</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-0.8242403485477681</v>
+        <v>6.743228929052838e-07</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>1.414229245791287e-07</v>
+        <v>-0.05581944228106436</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>6.743228929052838e-07</v>
+        <v>0.03642034831129343</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>-0.05581944228106436</v>
+        <v>0.004442325232982616</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.03642034831129343</v>
+        <v>1.874872924531639</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.004442325232982616</v>
+        <v>1.990936757063184</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.859571312597834</v>
+        <v>4.052168499229758</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1.990936757063184</v>
+        <v>4.577872763930694e-17</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>4.052168499229758</v>
+        <v>978158221.83825</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>4.577872763930694e-17</v>
+        <v>1.215721589555263e-07</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>978158221.83825</v>
+        <v>43.80078936171073</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>1.215721589555263e-07</v>
+        <v>0.0001594638077820168</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>43.80078936171073</v>
+        <v>8.884263507119664</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001594638077820168</v>
+        <v>1.303930158408938</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>8.884263507119664</v>
+        <v>0.01258650036443589</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.303930158408938</v>
+        <v>2.874990880892842</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.01258650036443589</v>
+        <v>0.9601808933101817</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>2.874990880892842</v>
+        <v>1.50678880441428</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9601808933101817</v>
+        <v>18</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.50678880441428</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.2292159365569926</v>
       </c>
     </row>
@@ -9112,72 +8854,66 @@
         <v>4.106974961593738e-08</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.603732623863905</v>
+        <v>1.392019072464365e-07</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-0.7895702551573862</v>
+        <v>6.719827572793523e-07</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>1.392019072464365e-07</v>
+        <v>-0.05648923582995617</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>6.719827572793523e-07</v>
+        <v>0.03760992774625828</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>-0.05648923582995617</v>
+        <v>0.004605479391283683</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.03760992774625828</v>
+        <v>1.876127758786318</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.004605479391283683</v>
+        <v>1.997911816457587</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.85987079259037</v>
+        <v>4.021050980402504</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1.997911816457587</v>
+        <v>4.6490000568144e-17</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>4.021050980402504</v>
+        <v>979606890.0988697</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>4.6490000568144e-17</v>
+        <v>1.21555244199546e-07</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>979606890.0988697</v>
+        <v>44.61318339812337</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>1.21555244199546e-07</v>
+        <v>0.0001846484004076518</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>44.61318339812337</v>
+        <v>8.757579297281145</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001846484004076518</v>
+        <v>1.614682900131258</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>8.757579297281145</v>
+        <v>0.01416164510306179</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.614682900131258</v>
+        <v>2.890627763534042</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.01416164510306179</v>
+        <v>0.9603089138811883</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>2.890627763534042</v>
+        <v>1.518878543216031</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9603089138811883</v>
+        <v>18</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.518878543216031</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.2184877047668862</v>
       </c>
     </row>
@@ -9554,7 +9290,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.450080905745796</v>
+        <v>1.443172552915677</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.431124184853092</v>
@@ -9643,7 +9379,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.438814114464392</v>
+        <v>1.431885217491359</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.47264466328584</v>
@@ -9732,7 +9468,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.40974035265139</v>
+        <v>1.402410740708783</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.200700466526359</v>
@@ -9821,7 +9557,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.428325102034715</v>
+        <v>1.420546061596803</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.30740767336869</v>
@@ -9910,7 +9646,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.436507904974058</v>
+        <v>1.428506978942138</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.325431823873865</v>
@@ -9999,7 +9735,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.438782748125397</v>
+        <v>1.431628667476989</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.365698830189088</v>
@@ -10088,7 +9824,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.437228230942574</v>
+        <v>1.428753059529533</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.379165464799366</v>
@@ -10177,7 +9913,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.462062707002994</v>
+        <v>1.452099030151156</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.475131071787852</v>
@@ -10266,7 +10002,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.512444319432088</v>
+        <v>1.489860426407316</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.276726355071135</v>
@@ -10355,7 +10091,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.528957014058381</v>
+        <v>1.505213169254768</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.223543192270485</v>
@@ -10444,7 +10180,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.566343406187662</v>
+        <v>1.52876532362091</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.182474804243018</v>
@@ -10533,7 +10269,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.567314742537506</v>
+        <v>1.534562605010684</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.276931635061221</v>
@@ -10622,7 +10358,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.562159479917564</v>
+        <v>1.531979033968909</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.227044894597819</v>
@@ -10711,7 +10447,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.568709634165499</v>
+        <v>1.539655917343686</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.15106494622252</v>
@@ -10800,7 +10536,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.571796194490192</v>
+        <v>1.54222553692638</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.346652696345252</v>
@@ -10889,7 +10625,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.565227541194044</v>
+        <v>1.537280855436914</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.2997112006651</v>
@@ -10978,7 +10714,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.607543326930449</v>
+        <v>1.57181221997417</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.284436790851665</v>
@@ -11067,7 +10803,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.665506348312337</v>
+        <v>1.621000151989472</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.419042500505852</v>
@@ -11156,7 +10892,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.651083752527043</v>
+        <v>1.607710508367655</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.393090734280534</v>
@@ -11245,7 +10981,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.643944048975162</v>
+        <v>1.600142048636713</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.391372931157519</v>
@@ -11334,7 +11070,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.63414128491251</v>
+        <v>1.59323839744868</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.460799868395549</v>
@@ -11423,7 +11159,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.619285413561169</v>
+        <v>1.585607052700423</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.369317397810615</v>
@@ -11512,7 +11248,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.607598160690315</v>
+        <v>1.577987239310119</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.431933870479602</v>
@@ -11601,7 +11337,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.535431414264284</v>
+        <v>1.515728170609804</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.414353872636348</v>
@@ -11690,7 +11426,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.534301617126537</v>
+        <v>1.515637582835487</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.363597971321191</v>
@@ -11779,7 +11515,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.531916746629735</v>
+        <v>1.516224717806278</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.491144438053662</v>
@@ -11868,7 +11604,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.535351912133367</v>
+        <v>1.516595582321012</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.365916377969608</v>
@@ -11957,7 +11693,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.548258010992851</v>
+        <v>1.525960812992675</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.403238922735988</v>
@@ -12046,7 +11782,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.584952926994809</v>
+        <v>1.556463898171924</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.421782280097387</v>
@@ -12135,7 +11871,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.551397482473676</v>
+        <v>1.52192144552119</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.50020111710854</v>
@@ -12224,7 +11960,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.557136663826493</v>
+        <v>1.527290701546175</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.381436471080742</v>
@@ -12313,7 +12049,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.54148716629603</v>
+        <v>1.516813729189363</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.284184280625438</v>
@@ -12402,7 +12138,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.532297228661073</v>
+        <v>1.506381876660021</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.526477059602959</v>
@@ -12491,7 +12227,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.541243933904769</v>
+        <v>1.513670924503921</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.394233247697551</v>
@@ -12580,7 +12316,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.542959256925289</v>
+        <v>1.513381158056704</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.46022605579199</v>
@@ -12669,7 +12405,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.521791359520947</v>
+        <v>1.491660242500712</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.107924849511233</v>
@@ -12758,7 +12494,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.53377411781684</v>
+        <v>1.50232600176437</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.148094860058822</v>
@@ -12847,7 +12583,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.534869664853914</v>
+        <v>1.504405619796915</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.147824243011606</v>
@@ -12936,7 +12672,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.548780896862455</v>
+        <v>1.522302148189129</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.14856743876714</v>
@@ -13025,7 +12761,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.552762322834376</v>
+        <v>1.527508786380644</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.147263861048742</v>
@@ -13114,7 +12850,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.535045584105858</v>
+        <v>1.509254075227523</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.099042660646377</v>
@@ -13203,7 +12939,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.532146995091751</v>
+        <v>1.498606968111267</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.132653333132127</v>
@@ -13292,7 +13028,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.50141538574049</v>
+        <v>1.479971596794575</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.107571772528221</v>
@@ -13381,7 +13117,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.498659137326073</v>
+        <v>1.475087903970935</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.184372053988955</v>
@@ -13470,7 +13206,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.52961502146882</v>
+        <v>1.502627355854691</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.136386412712937</v>
@@ -13559,7 +13295,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.498995199125669</v>
+        <v>1.475535963669374</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.116900083843627</v>
@@ -13648,7 +13384,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.475104459940403</v>
+        <v>1.454360852535543</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.190401541363815</v>
@@ -13737,7 +13473,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.468691349193388</v>
+        <v>1.448114455106629</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.176279254898692</v>
@@ -13826,7 +13562,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.422198869397537</v>
+        <v>1.404601413271164</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.145959432296539</v>
@@ -13915,7 +13651,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.409711363539387</v>
+        <v>1.401638951059322</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.21858988834042</v>
@@ -14004,7 +13740,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.428281815935535</v>
+        <v>1.421334192897467</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.302307205626103</v>
@@ -14093,7 +13829,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.399312672260637</v>
+        <v>1.389937507915169</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.315580985405791</v>
@@ -14182,7 +13918,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.397877433092748</v>
+        <v>1.383927939472662</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.515743320789614</v>
@@ -14271,7 +14007,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.404299022806597</v>
+        <v>1.388190441687034</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.407480968238736</v>
@@ -14360,7 +14096,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.402903363073695</v>
+        <v>1.386463058215058</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.247666105207838</v>
@@ -14449,7 +14185,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.417603206267442</v>
+        <v>1.396987068122133</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.392893986141785</v>
@@ -14538,7 +14274,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.416509238577828</v>
+        <v>1.404718090732258</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.394996522596021</v>
@@ -14627,7 +14363,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.418933342758844</v>
+        <v>1.408540645364582</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.392224397715577</v>
@@ -14716,7 +14452,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.424367384333897</v>
+        <v>1.419491831928204</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.359773350131402</v>
@@ -14805,7 +14541,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.406307485973671</v>
+        <v>1.402198311460744</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.447664573140615</v>
@@ -14894,7 +14630,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.430315807643324</v>
+        <v>1.426008775018112</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.446513235562516</v>
@@ -14983,7 +14719,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.463944783851441</v>
+        <v>1.457383234734759</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.233054402312139</v>
@@ -15072,7 +14808,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.443495776646873</v>
+        <v>1.435220472501316</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.229763868016013</v>
@@ -15161,7 +14897,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.491354117711323</v>
+        <v>1.47574371547441</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.198443216538985</v>
@@ -15250,7 +14986,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.492680258715838</v>
+        <v>1.472945686105313</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.397915439751242</v>
@@ -15339,7 +15075,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.491597095318024</v>
+        <v>1.472992641547158</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.332186207037306</v>
@@ -15428,7 +15164,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.470586302951847</v>
+        <v>1.453011097438878</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.318132311422027</v>
@@ -15517,7 +15253,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.477949527061582</v>
+        <v>1.461874387780709</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.260214758636431</v>
@@ -15606,7 +15342,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.472158516576918</v>
+        <v>1.457481479026901</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.256168607233315</v>
@@ -15695,7 +15431,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.460961275277111</v>
+        <v>1.449800687144073</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.283777383059693</v>
@@ -15784,7 +15520,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.448749431284249</v>
+        <v>1.437599878357706</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.447335747608512</v>
@@ -15873,7 +15609,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.447362135747108</v>
+        <v>1.433786161638698</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.287047334868717</v>
@@ -15962,7 +15698,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.447046651164769</v>
+        <v>1.431224056350529</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.318783449755501</v>
@@ -16051,7 +15787,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.451101212151087</v>
+        <v>1.425559749670131</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.062747714744444</v>
@@ -16140,7 +15876,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.460500025885561</v>
+        <v>1.439393494786591</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.245353724663983</v>
@@ -16229,7 +15965,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.451981625775757</v>
+        <v>1.434987714253186</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.222975401474703</v>
@@ -16318,7 +16054,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.449132201129198</v>
+        <v>1.431057170982853</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.360196403124642</v>
@@ -16407,7 +16143,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.482001284784891</v>
+        <v>1.461845693262754</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.239948440980819</v>
@@ -16496,7 +16232,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.466509254427952</v>
+        <v>1.445553311655291</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.148812971554534</v>
@@ -16585,7 +16321,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.454218859854713</v>
+        <v>1.442078746334964</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.188299097175129</v>
@@ -16674,7 +16410,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.451807501587028</v>
+        <v>1.442280416621913</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.252315080882141</v>
@@ -16763,7 +16499,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.511971579909983</v>
+        <v>1.499230949807426</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.166303966851896</v>
@@ -16852,7 +16588,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.511843013749091</v>
+        <v>1.498127399115899</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.22154790291445</v>
@@ -16941,7 +16677,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.521987225001093</v>
+        <v>1.508606280825816</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.303426190210242</v>
@@ -17030,7 +16766,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.522178810242049</v>
+        <v>1.507422822898138</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.204347638549743</v>
@@ -17119,7 +16855,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.562375627545133</v>
+        <v>1.543099695894685</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.275421985290523</v>
@@ -17208,7 +16944,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.525377377688409</v>
+        <v>1.507818155060583</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.285603778320513</v>
@@ -17494,7 +17230,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.570725994303714</v>
+        <v>1.546685918962525</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.900762162961628</v>
@@ -17583,7 +17319,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.578723088447819</v>
+        <v>1.561151347476584</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.711231314913182</v>
@@ -17672,7 +17408,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.589566679885055</v>
+        <v>1.572622536866118</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.464218483444307</v>
@@ -17761,7 +17497,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.606282589370881</v>
+        <v>1.584025249035887</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.352376701022589</v>
@@ -17850,7 +17586,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.615694733244347</v>
+        <v>1.589932467767062</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.399344195041186</v>
@@ -17939,7 +17675,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.611383323789388</v>
+        <v>1.583674186880142</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.396756319614457</v>
@@ -18028,7 +17764,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.623054004428798</v>
+        <v>1.597061030160268</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.543641821700159</v>
@@ -18117,7 +17853,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.639241725202381</v>
+        <v>1.607387446529697</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.586909574435969</v>
@@ -18206,7 +17942,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.641326721209407</v>
+        <v>1.603391721412298</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.343520754001031</v>
@@ -18295,7 +18031,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.641652113750582</v>
+        <v>1.604777179769037</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.523572992003118</v>
@@ -18384,7 +18120,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.612295768122018</v>
+        <v>1.577254050493927</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.984184767077553</v>
@@ -18473,7 +18209,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.600208942307419</v>
+        <v>1.566051663502694</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.994953469019331</v>
@@ -18562,7 +18298,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.59354735443674</v>
+        <v>1.559731951201403</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.975319998512703</v>
@@ -18651,7 +18387,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.601900903631702</v>
+        <v>1.562007460588298</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.830853239833675</v>
@@ -18740,7 +18476,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.595470486485003</v>
+        <v>1.555019371909423</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.83758446929267</v>
@@ -18829,7 +18565,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.58505520430614</v>
+        <v>1.551046289245172</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.77543306223703</v>
@@ -18918,7 +18654,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.580837401358261</v>
+        <v>1.539084385251867</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.762836097823081</v>
@@ -19007,7 +18743,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.578944117804582</v>
+        <v>1.538458565804081</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.86513199768439</v>
@@ -19096,7 +18832,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.567195841050055</v>
+        <v>1.525718241694456</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.870779714576737</v>
@@ -19185,7 +18921,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.568865091066647</v>
+        <v>1.529399276077597</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.85087261861442</v>
@@ -19274,7 +19010,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.543363598904812</v>
+        <v>1.510967255026086</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.952632305771264</v>
@@ -19363,7 +19099,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.538824482071184</v>
+        <v>1.511932159133673</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.966912013047282</v>
@@ -19452,7 +19188,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.536514356559843</v>
+        <v>1.513337995722781</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.697691522858</v>
@@ -19541,7 +19277,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.51960136518028</v>
+        <v>1.499364641225679</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.776526115134215</v>
@@ -19630,7 +19366,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.514658159902427</v>
+        <v>1.497951878045194</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.913118382195497</v>
@@ -19719,7 +19455,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.439113787756324</v>
+        <v>1.42424703165814</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.623705392910817</v>
@@ -19808,7 +19544,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.432712333960192</v>
+        <v>1.419803974333877</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.61478309155573</v>
@@ -19897,7 +19633,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.441643681892639</v>
+        <v>1.427491238380144</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.616796307310371</v>
@@ -19986,7 +19722,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.441713072647314</v>
+        <v>1.430586411345829</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.618620194343455</v>
@@ -20075,7 +19811,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.44069419064344</v>
+        <v>1.425231305884947</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.64664242358569</v>
@@ -20164,7 +19900,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.445325618717598</v>
+        <v>1.429045361451813</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.615067451342414</v>
@@ -20253,7 +19989,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.446873764506705</v>
+        <v>1.437170843651237</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.61631376731671</v>
@@ -20342,7 +20078,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.443338319629639</v>
+        <v>1.434417146079835</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.651129647570081</v>
@@ -20431,7 +20167,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.445924083692802</v>
+        <v>1.437040808199341</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.626709348131803</v>
@@ -20520,7 +20256,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.449029208245747</v>
+        <v>1.434806478080645</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.641969210239138</v>
@@ -20609,7 +20345,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.453221694064721</v>
+        <v>1.434252817635198</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.640530700687249</v>
@@ -20698,7 +20434,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.447993612367251</v>
+        <v>1.427872307885334</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.638391024776954</v>
@@ -20787,7 +20523,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.450902534418969</v>
+        <v>1.430091133301531</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.643738943724339</v>
@@ -20876,7 +20612,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.451026791158858</v>
+        <v>1.42906731518158</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.632930551412915</v>
@@ -20965,7 +20701,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.457869448281537</v>
+        <v>1.434226487124515</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.636165417075527</v>
@@ -21054,7 +20790,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.563714443262538</v>
+        <v>1.531841491161261</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.820504843483774</v>
@@ -21143,7 +20879,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.564336538644204</v>
+        <v>1.530900866255189</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.736461983296071</v>
@@ -21232,7 +20968,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.556228317339205</v>
+        <v>1.530827573531297</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.870773779441438</v>
@@ -21321,7 +21057,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.564206075006315</v>
+        <v>1.541475802963901</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.848670752423856</v>
@@ -21410,7 +21146,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.570660748144722</v>
+        <v>1.543411296706167</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.983202990658473</v>
@@ -21499,7 +21235,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.56195699523011</v>
+        <v>1.538921526936281</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.611673291180408</v>
@@ -21588,7 +21324,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.563478101538761</v>
+        <v>1.536445293929501</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.788418771850123</v>
@@ -21677,7 +21413,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.570443391312395</v>
+        <v>1.540361719913546</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.915925010493337</v>
@@ -21766,7 +21502,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.562262959774222</v>
+        <v>1.53503622531205</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.83385582753039</v>
@@ -21855,7 +21591,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.567646373135584</v>
+        <v>1.547529817587237</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.929351629226909</v>
@@ -21944,7 +21680,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.584759926381708</v>
+        <v>1.564250869319269</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.107379830010972</v>
@@ -22033,7 +21769,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.565401342899916</v>
+        <v>1.549213900388714</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.244427390819637</v>
@@ -22122,7 +21858,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.571766364584</v>
+        <v>1.55720593434932</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.895928638382687</v>
@@ -22211,7 +21947,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.580197639771037</v>
+        <v>1.564593847497345</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.187717225532987</v>
@@ -22300,7 +22036,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.574032537857795</v>
+        <v>1.560212883000368</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.172593645707881</v>
@@ -22389,7 +22125,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.565943495348622</v>
+        <v>1.547498176125328</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.026501557312782</v>
@@ -22478,7 +22214,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.572786365945667</v>
+        <v>1.558017216847861</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.962598704762772</v>
@@ -22567,7 +22303,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.562747720436999</v>
+        <v>1.548187998953982</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.285745041865699</v>
@@ -22656,7 +22392,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.555318962778225</v>
+        <v>1.538931929432484</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.269117063882769</v>
@@ -22745,7 +22481,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.548171175512084</v>
+        <v>1.525742440561753</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.878766964475599</v>
@@ -22834,7 +22570,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.558298493287957</v>
+        <v>1.531540155683456</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.07873581616404</v>
@@ -22923,7 +22659,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.565403883498765</v>
+        <v>1.535622812377256</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.053479909085147</v>
@@ -23012,7 +22748,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.555732359890583</v>
+        <v>1.527906358627834</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.02545987244997</v>
@@ -23101,7 +22837,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.566948831867682</v>
+        <v>1.529276932443658</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.007775087729609</v>
@@ -23190,7 +22926,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.556393659156795</v>
+        <v>1.517281913192148</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.74555374747085</v>
@@ -23279,7 +23015,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.555160824741976</v>
+        <v>1.51843703864376</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.896128865913106</v>
@@ -23368,7 +23104,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.556511988351214</v>
+        <v>1.515984960547232</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.749953704645106</v>
@@ -23457,7 +23193,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.550187512794079</v>
+        <v>1.509481540873477</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.803607451487111</v>
@@ -23546,7 +23282,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.537999032091589</v>
+        <v>1.501497760278224</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.962888906095655</v>
@@ -23635,7 +23371,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.538761380582727</v>
+        <v>1.501294302304908</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.86933535426881</v>
@@ -23724,7 +23460,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.548693442984804</v>
+        <v>1.512928167904309</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.726882199715868</v>
@@ -23813,7 +23549,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.557587767804084</v>
+        <v>1.517268084813809</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.953964781984345</v>
@@ -23902,7 +23638,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.564975463826833</v>
+        <v>1.522056802142214</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.804299608058587</v>
@@ -23991,7 +23727,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.57023403899276</v>
+        <v>1.525781304653236</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.781445397785169</v>
@@ -24080,7 +23816,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.573574239315234</v>
+        <v>1.538135563474691</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.879355953169655</v>
@@ -24169,7 +23905,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.558268153517085</v>
+        <v>1.532871054298752</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.737883006214009</v>
@@ -24258,7 +23994,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.542248114385773</v>
+        <v>1.51608938010775</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.718598485665717</v>
@@ -24347,7 +24083,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.556596881578977</v>
+        <v>1.532019704351564</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.959073210868735</v>
@@ -24436,7 +24172,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.554366269364875</v>
+        <v>1.534695901020451</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.864812480746112</v>
@@ -24525,7 +24261,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.566404911928764</v>
+        <v>1.545354272065455</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.174485487446459</v>
@@ -24614,7 +24350,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.574858523912887</v>
+        <v>1.55564109546668</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.153148794975166</v>
@@ -24703,7 +24439,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.597470519919057</v>
+        <v>1.576855801762764</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.052254998046154</v>
@@ -24792,7 +24528,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.607654592050277</v>
+        <v>1.584272621725477</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.830722518049301</v>
@@ -24881,7 +24617,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.623721976007948</v>
+        <v>1.595231972245053</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.829966123638305</v>
@@ -24970,7 +24706,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.608610238428255</v>
+        <v>1.581973224613475</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.178721568312696</v>
@@ -25059,7 +24795,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.607379096685118</v>
+        <v>1.586705852356745</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.132067946324973</v>
@@ -25148,7 +24884,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.585241419963928</v>
+        <v>1.56364079193154</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.341814941630293</v>
@@ -25434,7 +25170,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.626497502527006</v>
+        <v>1.599340845481449</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.307999167975176</v>
@@ -25523,7 +25259,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.617409393778605</v>
+        <v>1.5968906216185</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.385918453642433</v>
@@ -25612,7 +25348,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.617861840231518</v>
+        <v>1.598764459511127</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.870811951115435</v>
@@ -25701,7 +25437,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.635937628964585</v>
+        <v>1.615640092474441</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.426620251127784</v>
@@ -25790,7 +25526,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.644988405201927</v>
+        <v>1.625863708130289</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.466014949729705</v>
@@ -25879,7 +25615,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.635685383751036</v>
+        <v>1.618743733069562</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.30906785814319</v>
@@ -25968,7 +25704,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.630903751467701</v>
+        <v>1.612865908492981</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.161949140509368</v>
@@ -26057,7 +25793,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.640388363769369</v>
+        <v>1.620556326993165</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.133828204717208</v>
@@ -26146,7 +25882,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.654840186117018</v>
+        <v>1.628201828987865</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.36663397980004</v>
@@ -26235,7 +25971,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.661322316220261</v>
+        <v>1.631990967214015</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.120124489914441</v>
@@ -26324,7 +26060,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.663684659548284</v>
+        <v>1.627638085403338</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.447763468909598</v>
@@ -26413,7 +26149,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.654851925979664</v>
+        <v>1.614544592071649</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.495648577235641</v>
@@ -26502,7 +26238,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.649301561289888</v>
+        <v>1.604250635178298</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.542863405531041</v>
@@ -26591,7 +26327,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.643965122053229</v>
+        <v>1.593059535891928</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.838729444580786</v>
@@ -26680,7 +26416,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.648509054146625</v>
+        <v>1.602830785258947</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.515789457657285</v>
@@ -26769,7 +26505,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.656506362203467</v>
+        <v>1.61040940955351</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.569809897300245</v>
@@ -26858,7 +26594,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.669768546899123</v>
+        <v>1.621631022056048</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.530251221267271</v>
@@ -26947,7 +26683,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.681106833507962</v>
+        <v>1.631064058284633</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.284317573995099</v>
@@ -27036,7 +26772,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.678925712238707</v>
+        <v>1.628064245248698</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.529071702967135</v>
@@ -27125,7 +26861,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.680757507334306</v>
+        <v>1.62118804030116</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.720715333884816</v>
@@ -27214,7 +26950,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.685094839668415</v>
+        <v>1.624892418521419</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.560725884283907</v>
@@ -27303,7 +27039,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.685316977754256</v>
+        <v>1.621220073319699</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.208638814955705</v>
@@ -27392,7 +27128,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.683696400797612</v>
+        <v>1.620858294248855</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.429369612922574</v>
@@ -27481,7 +27217,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.650982708390919</v>
+        <v>1.598301921930226</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.310227827528242</v>
@@ -27570,7 +27306,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.640171064641853</v>
+        <v>1.583996318661549</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.323213285933767</v>
@@ -27659,7 +27395,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.627575366204743</v>
+        <v>1.577916569902789</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.811389566110275</v>
@@ -27748,7 +27484,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.625597494117232</v>
+        <v>1.5798431569941</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.922982272930975</v>
@@ -27837,7 +27573,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.631630674678837</v>
+        <v>1.588520418501046</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.157302848102258</v>
@@ -27926,7 +27662,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.644953782408713</v>
+        <v>1.600520314303057</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.125482318776146</v>
@@ -28015,7 +27751,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.645170038734525</v>
+        <v>1.596491520441414</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.857384011074217</v>
@@ -28104,7 +27840,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.645504350720679</v>
+        <v>1.596832343295072</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.044535270324515</v>
@@ -28193,7 +27929,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.631474841433287</v>
+        <v>1.581751827362514</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.108296932467005</v>
@@ -28282,7 +28018,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.623347980382749</v>
+        <v>1.572521567358624</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.146909315254324</v>
@@ -28371,7 +28107,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.62044725564559</v>
+        <v>1.565276588074263</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.182724803593009</v>
@@ -28460,7 +28196,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.609525688745225</v>
+        <v>1.559027120526521</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.239336278522138</v>
@@ -28549,7 +28285,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.600900200330874</v>
+        <v>1.553451508927631</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.104499787279204</v>
@@ -28638,7 +28374,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.606368185855151</v>
+        <v>1.561312112126255</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.028403017287217</v>
@@ -28727,7 +28463,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.603235133453164</v>
+        <v>1.558161511397814</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.970308295533556</v>
@@ -28816,7 +28552,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.611856894542039</v>
+        <v>1.562551434230651</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.990938523533052</v>
@@ -28905,7 +28641,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.624795625733053</v>
+        <v>1.582469479916946</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.116222676820994</v>
@@ -28994,7 +28730,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.640871849435946</v>
+        <v>1.595684219549761</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.144026786727185</v>
@@ -29083,7 +28819,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.650111329135059</v>
+        <v>1.60062659742284</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.026807356326154</v>
@@ -29172,7 +28908,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.647835903138955</v>
+        <v>1.598417585879835</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.788684415473816</v>
@@ -29261,7 +28997,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.641424934652996</v>
+        <v>1.592571724630306</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.285876508909959</v>
@@ -29350,7 +29086,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.653022282239825</v>
+        <v>1.602280816181331</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.207490686680929</v>
@@ -29439,7 +29175,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.633021253379068</v>
+        <v>1.587062594022428</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.078104265107373</v>
@@ -29528,7 +29264,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.623591908828317</v>
+        <v>1.578704876684462</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.301239094958001</v>
@@ -29617,7 +29353,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.623440750868292</v>
+        <v>1.580587337458561</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.940062495606699</v>
@@ -29706,7 +29442,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.612187821839488</v>
+        <v>1.570205279545602</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.006579650071356</v>
@@ -29795,7 +29531,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.622931845321151</v>
+        <v>1.584623039964558</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.315795470951479</v>
@@ -29884,7 +29620,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.64003446258639</v>
+        <v>1.599340141566476</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.159913120773527</v>
@@ -29973,7 +29709,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.611720469877695</v>
+        <v>1.575266932596267</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.910368437698064</v>
@@ -30062,7 +29798,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.606476348304988</v>
+        <v>1.570822158081956</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.889540778017949</v>
@@ -30151,7 +29887,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.614886655156772</v>
+        <v>1.576268820582924</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.027424692201691</v>
@@ -30240,7 +29976,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.614765910833048</v>
+        <v>1.575949765312291</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.819529354607758</v>
@@ -30329,7 +30065,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.617315015853312</v>
+        <v>1.575321700846529</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.966030685406757</v>
@@ -30418,7 +30154,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.62123468887402</v>
+        <v>1.579032313944399</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.938819379632248</v>
@@ -30507,7 +30243,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.62480184503587</v>
+        <v>1.579790191416346</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.041612079780158</v>
@@ -30596,7 +30332,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.628737282294812</v>
+        <v>1.584973474676285</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.965633182088913</v>
@@ -30685,7 +30421,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.610361914907535</v>
+        <v>1.573214707386854</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.811065953667158</v>
@@ -30774,7 +30510,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.625320718174361</v>
+        <v>1.583482265127889</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.054680998311457</v>
@@ -30863,7 +30599,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.636473220215854</v>
+        <v>1.593315470672125</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.866382665165676</v>
@@ -30952,7 +30688,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.619895371643884</v>
+        <v>1.578276074524554</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.682627464013913</v>
@@ -31041,7 +30777,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.645295616965938</v>
+        <v>1.595928047888498</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.675865335462781</v>
@@ -31130,7 +30866,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.638390181657549</v>
+        <v>1.591842188731306</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.870375071345172</v>
@@ -31219,7 +30955,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.639994087964898</v>
+        <v>1.596607284204598</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.779743134488838</v>
@@ -31308,7 +31044,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.65376283019495</v>
+        <v>1.606084940759798</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.65494105671914</v>
@@ -31397,7 +31133,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.668001968734862</v>
+        <v>1.61636740692257</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.691161673404193</v>
@@ -31486,7 +31222,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.673710157576036</v>
+        <v>1.625893101554146</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.72998282488417</v>
@@ -31575,7 +31311,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.661638788032546</v>
+        <v>1.610734646985521</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.863927402851635</v>
@@ -31664,7 +31400,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.654495565063949</v>
+        <v>1.604219072453334</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.076718367422708</v>
@@ -31753,7 +31489,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.649102233027836</v>
+        <v>1.600119492268625</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.923908612462229</v>
@@ -31842,7 +31578,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.635583721484106</v>
+        <v>1.59336786521497</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.832715909632616</v>
@@ -31931,7 +31667,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.642159570072161</v>
+        <v>1.597817022704351</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.54107063654342</v>
@@ -32020,7 +31756,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.653641695502979</v>
+        <v>1.60887781171175</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.921575517389085</v>
@@ -32109,7 +31845,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.654787877654502</v>
+        <v>1.61439231820802</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.662983569848284</v>
@@ -32198,7 +31934,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.659657749282731</v>
+        <v>1.619026439877976</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.811713378976028</v>
@@ -32287,7 +32023,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.673217868488257</v>
+        <v>1.634797980147457</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.26079085675156</v>
@@ -32376,7 +32112,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.667230689549443</v>
+        <v>1.631601914758697</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.086287056189795</v>
@@ -32465,7 +32201,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.663536649446865</v>
+        <v>1.626899402782263</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.975742324747134</v>
@@ -32554,7 +32290,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.652678383099664</v>
+        <v>1.618289628255541</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.059715093654721</v>
@@ -32643,7 +32379,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.662520070912791</v>
+        <v>1.629660513107096</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.221983418915907</v>
@@ -32732,7 +32468,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.666360337629972</v>
+        <v>1.633638601244604</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.059451122177347</v>
@@ -32821,7 +32557,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.662560405806631</v>
+        <v>1.62772610865001</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.175779921598226</v>
@@ -32910,7 +32646,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.664439384188738</v>
+        <v>1.630883998405443</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.997707043809415</v>
@@ -32999,7 +32735,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.675941567926729</v>
+        <v>1.644128444482307</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.292187315965502</v>
@@ -33088,7 +32824,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.666068341568103</v>
+        <v>1.635164372758421</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.09781929528412</v>
@@ -33374,7 +33110,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.705860254091862</v>
+        <v>1.676133453686663</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.622665953762391</v>
@@ -33463,7 +33199,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.705198185392278</v>
+        <v>1.677142644007137</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.448288726135819</v>
@@ -33552,7 +33288,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.710670709610667</v>
+        <v>1.678897847754312</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.468012688840099</v>
@@ -33641,7 +33377,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.721939038367773</v>
+        <v>1.685652131354507</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.501999650045144</v>
@@ -33730,7 +33466,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.729530458777966</v>
+        <v>1.686710334259358</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.796429466108076</v>
@@ -33819,7 +33555,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.734137947835891</v>
+        <v>1.689588337853708</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.856450084356531</v>
@@ -33908,7 +33644,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.732737966827554</v>
+        <v>1.689791019049842</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.000662609179317</v>
@@ -33997,7 +33733,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.747676039135922</v>
+        <v>1.697029100087352</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.910730706197337</v>
@@ -34086,7 +33822,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.748488255824146</v>
+        <v>1.682091655341462</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.0960372761862</v>
@@ -34175,7 +33911,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.759613058702965</v>
+        <v>1.689325782873189</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.985623181917441</v>
@@ -34264,7 +34000,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.769646901385314</v>
+        <v>1.693088143789219</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.69175734248445</v>
@@ -34353,7 +34089,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.773229861361805</v>
+        <v>1.702093006571231</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.612194360079266</v>
@@ -34442,7 +34178,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.787374881870386</v>
+        <v>1.713305061459282</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.028736262596508</v>
@@ -34531,7 +34267,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.797789897764408</v>
+        <v>1.721609306357493</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.686163870129465</v>
@@ -34620,7 +34356,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.795232234711335</v>
+        <v>1.722759916367539</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.922933751885689</v>
@@ -34709,7 +34445,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.791819102207955</v>
+        <v>1.724254612529729</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.289152791812862</v>
@@ -34798,7 +34534,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.795838861417757</v>
+        <v>1.726497672820644</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.106165337775993</v>
@@ -34887,7 +34623,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.795961510250258</v>
+        <v>1.729504644457116</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.008346862327445</v>
@@ -34976,7 +34712,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.792996044668525</v>
+        <v>1.727714616589364</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.125681485009121</v>
@@ -35065,7 +34801,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.792587067220827</v>
+        <v>1.730360907870561</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.186558051399999</v>
@@ -35154,7 +34890,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.792014967427091</v>
+        <v>1.732692573044746</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.339340947118997</v>
@@ -35243,7 +34979,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.788268987047692</v>
+        <v>1.730514719108032</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.080326206828655</v>
@@ -35332,7 +35068,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.792410520192237</v>
+        <v>1.740713085676037</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.62719511453271</v>
@@ -35421,7 +35157,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.789210091685693</v>
+        <v>1.752891950014384</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.090787662610031</v>
@@ -35510,7 +35246,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.788288417361984</v>
+        <v>1.754101029566076</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.157049896037058</v>
@@ -35599,7 +35335,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.773349352586798</v>
+        <v>1.740576338427219</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.521249676021164</v>
@@ -35688,7 +35424,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.771626914938295</v>
+        <v>1.735929827106257</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.342807722343465</v>
@@ -35777,7 +35513,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.770453757988244</v>
+        <v>1.732027119821165</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.384658783070115</v>
@@ -35866,7 +35602,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.769998426420459</v>
+        <v>1.732813960818476</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.390264589636239</v>
@@ -35955,7 +35691,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.770783666812471</v>
+        <v>1.729844110079073</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.6210464928233</v>
@@ -36044,7 +35780,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.771588475524854</v>
+        <v>1.729114729350976</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.458576388075453</v>
@@ -36133,7 +35869,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.773040322022151</v>
+        <v>1.724188416339797</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.308967054475867</v>
@@ -36222,7 +35958,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.773319166904614</v>
+        <v>1.723452083016174</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.562062953632286</v>
@@ -36311,7 +36047,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.77148945656791</v>
+        <v>1.722655609787733</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.319951166310287</v>
@@ -36400,7 +36136,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.766157153073352</v>
+        <v>1.719061978894184</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.36818370023881</v>
@@ -36489,7 +36225,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.758472994252641</v>
+        <v>1.710599903022169</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.39764407724918</v>
@@ -36578,7 +36314,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.758434328342592</v>
+        <v>1.708889274301872</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.619582649564373</v>
@@ -36667,7 +36403,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.759757776808487</v>
+        <v>1.709199542348968</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.432547690512478</v>
@@ -36756,7 +36492,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.756183411170039</v>
+        <v>1.708802536981053</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.299236384782099</v>
@@ -36845,7 +36581,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.759182830894413</v>
+        <v>1.709268804189816</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.651326425645507</v>
@@ -36934,7 +36670,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.769286579614011</v>
+        <v>1.725146635657728</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.150427182523549</v>
@@ -37023,7 +36759,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.767701491164996</v>
+        <v>1.726384976983102</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.722183559304376</v>
@@ -37112,7 +36848,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.754640392160483</v>
+        <v>1.726488353704475</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.929027717135976</v>
@@ -37201,7 +36937,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.749729915539595</v>
+        <v>1.722555287492662</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.751688353952406</v>
@@ -37290,7 +37026,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.764266347385964</v>
+        <v>1.737567240493223</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.903505649141913</v>
@@ -37379,7 +37115,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.756124167346099</v>
+        <v>1.729713099125112</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.234416646561527</v>
@@ -37468,7 +37204,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.752341405788738</v>
+        <v>1.730585814029078</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.054245062404875</v>
@@ -37557,7 +37293,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.751004423491566</v>
+        <v>1.730032245183093</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.079155007270504</v>
@@ -37646,7 +37382,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.751162016181976</v>
+        <v>1.729507657533009</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.652221771642414</v>
@@ -37735,7 +37471,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.765592293309578</v>
+        <v>1.744333693574945</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.764712548877618</v>
@@ -37824,7 +37560,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.771534430442797</v>
+        <v>1.747986906332886</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.509171474439595</v>
@@ -37913,7 +37649,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.779067560219325</v>
+        <v>1.754443707805452</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.523603741407624</v>
@@ -38002,7 +37738,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.772761633555612</v>
+        <v>1.752426496563369</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.14066710517201</v>
@@ -38091,7 +37827,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.770452511889498</v>
+        <v>1.749088749783574</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.048872980548437</v>
@@ -38180,7 +37916,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.777524513058987</v>
+        <v>1.754214010512472</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.801582771050888</v>
@@ -38269,7 +38005,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.780357119238296</v>
+        <v>1.753323031782807</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.61191166580925</v>
@@ -38358,7 +38094,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.79023738215613</v>
+        <v>1.759089074916786</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.333335522805652</v>
@@ -38447,7 +38183,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.795951105942158</v>
+        <v>1.759953014546249</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.340306653074149</v>
@@ -38536,7 +38272,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.802628163081089</v>
+        <v>1.765406939003429</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.578289725071786</v>
@@ -38625,7 +38361,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.795031507668513</v>
+        <v>1.75816820077594</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.920981040513953</v>
@@ -38714,7 +38450,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.800347464293242</v>
+        <v>1.763134458014009</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.53476213891281</v>
@@ -38803,7 +38539,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.805487537012342</v>
+        <v>1.765823929917455</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.122535555139762</v>
@@ -38892,7 +38628,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.80192809707626</v>
+        <v>1.763592915372222</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.426014293047944</v>
@@ -38981,7 +38717,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.804825742652806</v>
+        <v>1.760466187402647</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.976080523437364</v>
@@ -39070,7 +38806,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.791532051530837</v>
+        <v>1.749745535600286</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.008110692088849</v>
@@ -39159,7 +38895,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.79336051799364</v>
+        <v>1.749113887661672</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.68780120228636</v>
@@ -39248,7 +38984,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.791610181430701</v>
+        <v>1.743961098944011</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.512449017743142</v>
@@ -39337,7 +39073,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.800081239147902</v>
+        <v>1.746756890004275</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.487015101608759</v>
@@ -39426,7 +39162,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.792394536798093</v>
+        <v>1.742024703535036</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.538112434862207</v>
@@ -39515,7 +39251,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.788623767615931</v>
+        <v>1.733264042738822</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.52940390647061</v>
@@ -39604,7 +39340,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.790030958900635</v>
+        <v>1.732297883092847</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.516078533633327</v>
@@ -39693,7 +39429,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.790571188174747</v>
+        <v>1.732049171063565</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.868818077136557</v>
@@ -39782,7 +39518,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.797176659494043</v>
+        <v>1.734855419223394</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.272184285746413</v>
@@ -39871,7 +39607,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.797527824733782</v>
+        <v>1.733986317003501</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.515797805932925</v>
@@ -39960,7 +39696,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.792250969919533</v>
+        <v>1.725159403972548</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.668844377142062</v>
@@ -40049,7 +39785,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.798258831544272</v>
+        <v>1.732296233931121</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.820639607557587</v>
@@ -40138,7 +39874,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.79953545894168</v>
+        <v>1.73279353259018</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.459409475984386</v>
@@ -40227,7 +39963,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.802266568139162</v>
+        <v>1.737765973825663</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.732463426868936</v>
@@ -40316,7 +40052,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.806134164393578</v>
+        <v>1.740679103931519</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.007537199609289</v>
@@ -40405,7 +40141,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.804607661981705</v>
+        <v>1.741996135790124</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.357467260909433</v>
@@ -40494,7 +40230,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.807000363747652</v>
+        <v>1.749456715728011</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.768465557543743</v>
@@ -40583,7 +40319,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.805204829729604</v>
+        <v>1.747999035968269</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.457260340367462</v>
@@ -40672,7 +40408,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.794404268353352</v>
+        <v>1.737714745029539</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.602323056531539</v>
@@ -40761,7 +40497,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.800301620625445</v>
+        <v>1.742704906129786</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.877992926938279</v>
@@ -40850,7 +40586,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.802824377574013</v>
+        <v>1.749560282430942</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>4.193943723077288</v>
@@ -40939,7 +40675,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.795413124626011</v>
+        <v>1.745388221583944</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>4.063139444514341</v>
@@ -41028,7 +40764,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.775293703954975</v>
+        <v>1.73234296550383</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>4.226292061755215</v>
@@ -41314,7 +41050,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.395540350397924</v>
+        <v>1.400114514980122</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.612697442195313</v>
@@ -41403,7 +41139,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.403453625337811</v>
+        <v>1.407930753864126</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.513224329380956</v>
@@ -41492,7 +41228,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.408097162675311</v>
+        <v>1.412013899869131</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.338245987226169</v>
@@ -41581,7 +41317,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.428734993782299</v>
+        <v>1.42754130666796</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.709036175542542</v>
@@ -41670,7 +41406,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.433327263471704</v>
+        <v>1.43229441770863</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.578844066124247</v>
@@ -41759,7 +41495,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.434451710867896</v>
+        <v>1.431041959862809</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.683778113332764</v>
@@ -41848,7 +41584,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.441132270881426</v>
+        <v>1.44243650046553</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.706017359715309</v>
@@ -41937,7 +41673,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.452023067545521</v>
+        <v>1.454568475685979</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.649101610234216</v>
@@ -42026,7 +41762,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.469071741338107</v>
+        <v>1.465589932684601</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.525009324674385</v>
@@ -42115,7 +41851,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.477429648389485</v>
+        <v>1.472964985443233</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.623838193133337</v>
@@ -42204,7 +41940,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.468427864870299</v>
+        <v>1.464888989531829</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.767582977786828</v>
@@ -42293,7 +42029,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.462942389462038</v>
+        <v>1.462764849192479</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.75628140271775</v>
@@ -42382,7 +42118,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.458646182602922</v>
+        <v>1.458621580957954</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.677345567492589</v>
@@ -42471,7 +42207,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.462489506362239</v>
+        <v>1.460865645572399</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.671461588704191</v>
@@ -42560,7 +42296,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.474853633556585</v>
+        <v>1.473763764566586</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.576482569666663</v>
@@ -42649,7 +42385,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.464352284070287</v>
+        <v>1.460514262288447</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.933899321151725</v>
@@ -42738,7 +42474,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.466407138722982</v>
+        <v>1.460779982483109</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.719879161944659</v>
@@ -42827,7 +42563,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.47793795081731</v>
+        <v>1.473696742304925</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.930268190569076</v>
@@ -42916,7 +42652,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.488339615573191</v>
+        <v>1.484609430070149</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.61462250860801</v>
@@ -43005,7 +42741,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.493487147273805</v>
+        <v>1.49062355857311</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.762142318783326</v>
@@ -43094,7 +42830,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.477784132833594</v>
+        <v>1.472733042238448</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.637157348623628</v>
@@ -43183,7 +42919,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.472914288198931</v>
+        <v>1.461263909709072</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.75389253021081</v>
@@ -43272,7 +43008,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.460689231604278</v>
+        <v>1.455376405729875</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.691667356090978</v>
@@ -43361,7 +43097,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.455601443808627</v>
+        <v>1.449630773702472</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.792859589089696</v>
@@ -43450,7 +43186,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.450011011052719</v>
+        <v>1.44934189976019</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.490258174878737</v>
@@ -43539,7 +43275,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.464556886577014</v>
+        <v>1.462848174201975</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.664192462506458</v>
@@ -43628,7 +43364,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.464483291755019</v>
+        <v>1.463472486555982</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.750862009019953</v>
@@ -43717,7 +43453,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.461149089610227</v>
+        <v>1.457606223571703</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.576068968178874</v>
@@ -43806,7 +43542,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.465090675020706</v>
+        <v>1.461932092928152</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.781491442062311</v>
@@ -43895,7 +43631,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.470088779145737</v>
+        <v>1.460880565154533</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.464092087855946</v>
@@ -43984,7 +43720,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.488140622146969</v>
+        <v>1.482836694564702</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.638019601934273</v>
@@ -44073,7 +43809,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.476651218975024</v>
+        <v>1.473808212851221</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.629816906545556</v>
@@ -44162,7 +43898,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.4665926601871</v>
+        <v>1.464158726931492</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.597846623563811</v>
@@ -44251,7 +43987,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.456979006036429</v>
+        <v>1.455201888982858</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.700215336337283</v>
@@ -44340,7 +44076,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.4509394734259</v>
+        <v>1.449126457189832</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.685155465925404</v>
@@ -44429,7 +44165,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.473893033628578</v>
+        <v>1.471250761219415</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.05076215483041</v>
@@ -44518,7 +44254,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.475343387927966</v>
+        <v>1.477068052793926</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.788176684807406</v>
@@ -44607,7 +44343,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.478973922530917</v>
+        <v>1.474481720389647</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.988266867856129</v>
@@ -44696,7 +44432,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.475737485752672</v>
+        <v>1.476558468322783</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.628075136071915</v>
@@ -44785,7 +44521,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.487767102381683</v>
+        <v>1.487305717364969</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.031626162842944</v>
@@ -44874,7 +44610,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.495015147442797</v>
+        <v>1.496366603507644</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.799163844597787</v>
@@ -44963,7 +44699,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.499153005502941</v>
+        <v>1.495640435336808</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.77946896576625</v>
@@ -45052,7 +44788,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.502317928967811</v>
+        <v>1.50261689775762</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.986937150281431</v>
@@ -45141,7 +44877,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.500828710376401</v>
+        <v>1.50226792011509</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.833893110948384</v>
@@ -45230,7 +44966,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.496109298023485</v>
+        <v>1.498947895664888</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.089349844192537</v>
@@ -45319,7 +45055,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.495064293783284</v>
+        <v>1.497087041411139</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.553202294976691</v>
@@ -45408,7 +45144,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.496627408050264</v>
+        <v>1.495757434297765</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.913330909024549</v>
@@ -45497,7 +45233,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.508312720153804</v>
+        <v>1.505457590487421</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.029405902588795</v>
@@ -45586,7 +45322,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.507834689987806</v>
+        <v>1.503324049599002</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.099032902264081</v>
@@ -45675,7 +45411,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.518354465995833</v>
+        <v>1.516280367797159</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.506484834575772</v>
@@ -45764,7 +45500,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.51627336342574</v>
+        <v>1.5152494560896</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.057996594218887</v>
@@ -45853,7 +45589,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.50237359648</v>
+        <v>1.503827443008975</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.10765129585991</v>
@@ -45942,7 +45678,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.515583112668458</v>
+        <v>1.516925925527221</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.83510805581188</v>
@@ -46031,7 +45767,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.522015761301396</v>
+        <v>1.523531069557553</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.105553892155168</v>
@@ -46120,7 +45856,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.520544589451032</v>
+        <v>1.520780429654296</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.450873234608286</v>
@@ -46209,7 +45945,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.513670057003839</v>
+        <v>1.514946532645395</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.227171169310366</v>
@@ -46298,7 +46034,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.51563031602772</v>
+        <v>1.520244415697771</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.13375982570988</v>
@@ -46387,7 +46123,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.508621461008347</v>
+        <v>1.51386344522675</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.21192444020578</v>
@@ -46476,7 +46212,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.515540305278531</v>
+        <v>1.520048131513419</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.291157249432258</v>
@@ -46565,7 +46301,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.512981578352996</v>
+        <v>1.517557144164482</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.74850935720234</v>
@@ -46654,7 +46390,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.509610340123075</v>
+        <v>1.51225398529519</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.926385346388666</v>
@@ -46743,7 +46479,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.518654010140879</v>
+        <v>1.523808986806539</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.827891318086492</v>
@@ -46832,7 +46568,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.518674016529353</v>
+        <v>1.520465294263714</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.577755359052941</v>
@@ -46921,7 +46657,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.52711346010637</v>
+        <v>1.528548303045229</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.645852191606186</v>
@@ -47010,7 +46746,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.511985614987916</v>
+        <v>1.51341499647905</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.924362765203694</v>
@@ -47099,7 +46835,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.521282457807517</v>
+        <v>1.524077070700671</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.462993372020884</v>
@@ -47188,7 +46924,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.526796526287926</v>
+        <v>1.528735807164528</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.630237681861758</v>
@@ -47277,7 +47013,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.529192238137778</v>
+        <v>1.523635635968023</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.724994873909184</v>
@@ -47366,7 +47102,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.5150498992594</v>
+        <v>1.510461108402551</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.646335886019425</v>
@@ -47455,7 +47191,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.509524785073914</v>
+        <v>1.506171440876431</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.840986453510187</v>
@@ -47544,7 +47280,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.519671050279491</v>
+        <v>1.516858679083047</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.487040029712033</v>
@@ -47633,7 +47369,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.511005522948119</v>
+        <v>1.506744940491679</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.829646918017076</v>
@@ -47722,7 +47458,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.517423361256786</v>
+        <v>1.511148158964026</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.7800120141074</v>
@@ -47811,7 +47547,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.527005754918009</v>
+        <v>1.518748075375523</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.618312034297167</v>
@@ -47900,7 +47636,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.535549556185597</v>
+        <v>1.522172341058348</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.756640657833227</v>
@@ -47989,7 +47725,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.520185965937356</v>
+        <v>1.516311479417597</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.95336205176642</v>
@@ -48078,7 +47814,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.5030917066405</v>
+        <v>1.498224287966334</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.816144203207228</v>
@@ -48167,7 +47903,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.496146788070847</v>
+        <v>1.500943968369766</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.006665672430299</v>
@@ -48256,7 +47992,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.493374382891144</v>
+        <v>1.502487016713156</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.98853193799583</v>
@@ -48345,7 +48081,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.499517217654264</v>
+        <v>1.50835771693503</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.942501421965642</v>
@@ -48434,7 +48170,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.495728717862841</v>
+        <v>1.501987779641948</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.998963469128255</v>
@@ -48523,7 +48259,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.497662285502883</v>
+        <v>1.507052039780684</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.997405968702285</v>
@@ -48612,7 +48348,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.513933920331484</v>
+        <v>1.523851979911474</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.457725631714183</v>
@@ -48701,7 +48437,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.512986380239924</v>
+        <v>1.521137921454172</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.950912856934397</v>
@@ -48790,7 +48526,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.512139727016009</v>
+        <v>1.512576120735918</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.850756614591433</v>
@@ -48879,7 +48615,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.501118634668007</v>
+        <v>1.502274730450684</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.751024821412053</v>
@@ -48968,7 +48704,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.493729348484129</v>
+        <v>1.492826569718888</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.645646855437982</v>
@@ -49254,7 +48990,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.747510681164393</v>
+        <v>1.717899050238137</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.43473883461454</v>
@@ -49343,7 +49079,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.738390296189509</v>
+        <v>1.706940793376532</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.471902245838291</v>
@@ -49432,7 +49168,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.706185847214761</v>
+        <v>1.685128057809753</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.944788309240641</v>
@@ -49521,7 +49257,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.721410544352049</v>
+        <v>1.697651526066205</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.216580143214527</v>
@@ -49610,7 +49346,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.732133953853409</v>
+        <v>1.700377319314079</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.874541322156198</v>
@@ -49699,7 +49435,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.737911422431667</v>
+        <v>1.706899929366493</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.117970974398634</v>
@@ -49788,7 +49524,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.735916914721497</v>
+        <v>1.701397032726434</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.073582257791427</v>
@@ -49877,7 +49613,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.751138961010043</v>
+        <v>1.71164973352828</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.293635367368492</v>
@@ -49966,7 +49702,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.780049556482834</v>
+        <v>1.728418564157652</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.94160198597759</v>
@@ -50055,7 +49791,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.788980152231652</v>
+        <v>1.734967632159907</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.086035685384052</v>
@@ -50144,7 +49880,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.809765795784113</v>
+        <v>1.746758135041451</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.718867412440945</v>
@@ -50233,7 +49969,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.811906899753318</v>
+        <v>1.752771946886764</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.120738631065729</v>
@@ -50322,7 +50058,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.815817977580633</v>
+        <v>1.759654161406661</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.067898457985835</v>
@@ -50411,7 +50147,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.828347154736677</v>
+        <v>1.772172456517004</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.690923762006113</v>
@@ -50500,7 +50236,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.834696661389634</v>
+        <v>1.771155087516573</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.087869631514207</v>
@@ -50589,7 +50325,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.829398108402362</v>
+        <v>1.774311551423667</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.981756525634335</v>
@@ -50678,7 +50414,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.853117084002918</v>
+        <v>1.785608928766641</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.360957661508115</v>
@@ -50767,7 +50503,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.891529705247918</v>
+        <v>1.809369990004213</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.748166817456102</v>
@@ -50856,7 +50592,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.887941794020879</v>
+        <v>1.806000218387484</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.285283275269498</v>
@@ -50945,7 +50681,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.885652586417982</v>
+        <v>1.799595378943209</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.773267504271204</v>
@@ -51034,7 +50770,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.879543627307579</v>
+        <v>1.789596455527106</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.514296335673962</v>
@@ -51123,7 +50859,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.880910428343594</v>
+        <v>1.78963749134032</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.34082778095767</v>
@@ -51212,7 +50948,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.869213617816705</v>
+        <v>1.77963931459011</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.312461899995975</v>
@@ -51301,7 +51037,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.83491910601389</v>
+        <v>1.757541558273561</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.500686066188458</v>
@@ -51390,7 +51126,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.838926365109007</v>
+        <v>1.763693973470396</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.364579394646741</v>
@@ -51479,7 +51215,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.832783145524357</v>
+        <v>1.758126457426967</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.57668185731024</v>
@@ -51568,7 +51304,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.832449686401538</v>
+        <v>1.754116872543024</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.62983899422789</v>
@@ -51657,7 +51393,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.837909603843449</v>
+        <v>1.758052531328792</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.403517066167174</v>
@@ -51746,7 +51482,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.863264718224244</v>
+        <v>1.763751956536638</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.491182083844006</v>
@@ -51835,7 +51571,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.833633402423204</v>
+        <v>1.747525618388795</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.169197361263572</v>
@@ -51924,7 +51660,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.833308861779523</v>
+        <v>1.749146242030744</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.393766531137361</v>
@@ -52013,7 +51749,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.838937248788648</v>
+        <v>1.759332524067968</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.174865236303916</v>
@@ -52102,7 +51838,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.839476128313604</v>
+        <v>1.762707545871055</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.051863426534214</v>
@@ -52191,7 +51927,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.84269248937157</v>
+        <v>1.765136035153706</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.395713097814885</v>
@@ -52280,7 +52016,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.838196931267948</v>
+        <v>1.770199814810799</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.53591753446001</v>
@@ -52369,7 +52105,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.820894281049334</v>
+        <v>1.761045389053668</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.338811820573814</v>
@@ -52458,7 +52194,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.814011607667322</v>
+        <v>1.760779104875875</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.323818747254838</v>
@@ -52547,7 +52283,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.827727586900722</v>
+        <v>1.775751761606592</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.455700965681299</v>
@@ -52636,7 +52372,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.831442651109245</v>
+        <v>1.783591355215255</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.310143173305482</v>
@@ -52725,7 +52461,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.830937303803928</v>
+        <v>1.782965426318292</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.090003624885556</v>
@@ -52814,7 +52550,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.82156003858939</v>
+        <v>1.776639513916499</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.963251485939526</v>
@@ -52903,7 +52639,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.820510337838456</v>
+        <v>1.775097384941785</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.079920537571048</v>
@@ -52992,7 +52728,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.801854170632853</v>
+        <v>1.766730555290156</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.048541415503597</v>
@@ -53081,7 +52817,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.801732607148813</v>
+        <v>1.774401635735747</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.399529277297534</v>
@@ -53170,7 +52906,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.828353342842813</v>
+        <v>1.799034705657379</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.382591194980129</v>
@@ -53259,7 +52995,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.812829646709916</v>
+        <v>1.787237091227808</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.994972099831492</v>
@@ -53348,7 +53084,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.788574670889699</v>
+        <v>1.768697478439446</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.262641859654285</v>
@@ -53437,7 +53173,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.787572797830321</v>
+        <v>1.76946400261533</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.207134591035307</v>
@@ -53526,7 +53262,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.757600934785905</v>
+        <v>1.744117691805412</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.103102301104528</v>
@@ -53615,7 +53351,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.756885333449029</v>
+        <v>1.743118183884402</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.040444048328871</v>
@@ -53704,7 +53440,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.774776679122633</v>
+        <v>1.757710572462909</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.208290219243856</v>
@@ -53793,7 +53529,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.758376216865613</v>
+        <v>1.745175077016723</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.898021486732792</v>
@@ -53882,7 +53618,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.757879818659254</v>
+        <v>1.741973003366517</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.42012156497803</v>
@@ -53971,7 +53707,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.756714816188834</v>
+        <v>1.738097547934216</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.15492155452625</v>
@@ -54060,7 +53796,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.753041279797116</v>
+        <v>1.736727021093639</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.963149134036121</v>
@@ -54149,7 +53885,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.766772011523852</v>
+        <v>1.749980998718411</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.132660050250912</v>
@@ -54238,7 +53974,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.767399055704746</v>
+        <v>1.748171147384031</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.469938736732633</v>
@@ -54327,7 +54063,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.76789201658727</v>
+        <v>1.749097024466884</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.056728776821719</v>
@@ -54416,7 +54152,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.769260483561834</v>
+        <v>1.753828978443237</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.039154411870981</v>
@@ -54505,7 +54241,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.758659522936666</v>
+        <v>1.743365156315664</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.196470822992044</v>
@@ -54594,7 +54330,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.771333318686408</v>
+        <v>1.750155826075535</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.985060921602148</v>
@@ -54683,7 +54419,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.792962621828324</v>
+        <v>1.769946719521358</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.940493249116291</v>
@@ -54772,7 +54508,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.768265820399235</v>
+        <v>1.748537458192901</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.77304260598548</v>
@@ -54861,7 +54597,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.797062112141366</v>
+        <v>1.768538638840546</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.949582078839175</v>
@@ -54950,7 +54686,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.794202416742035</v>
+        <v>1.768463511416608</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.239545422559115</v>
@@ -55039,7 +54775,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.795027924299285</v>
+        <v>1.769259263679904</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.012635100500993</v>
@@ -55128,7 +54864,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.774075464305886</v>
+        <v>1.753014978142917</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.255559105500867</v>
@@ -55217,7 +54953,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.777989401528584</v>
+        <v>1.756405939644012</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.077247846565511</v>
@@ -55306,7 +55042,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.777411681167492</v>
+        <v>1.759844459142339</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.000602064480019</v>
@@ -55395,7 +55131,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.779530400271677</v>
+        <v>1.760649755028942</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.016801724835794</v>
@@ -55484,7 +55220,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.770954125232201</v>
+        <v>1.752035097507939</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.362931189306132</v>
@@ -55573,7 +55309,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.771667963098209</v>
+        <v>1.755154578714227</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.182639552698271</v>
@@ -55662,7 +55398,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.773484377791913</v>
+        <v>1.756633911707728</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.084493964055751</v>
@@ -55751,7 +55487,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.778667237656616</v>
+        <v>1.760194313109923</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.828777298022133</v>
@@ -55840,7 +55576,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.782822077314217</v>
+        <v>1.764841036588552</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.122145530639535</v>
@@ -55929,7 +55665,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.784920101284417</v>
+        <v>1.76718685923081</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.057972709978244</v>
@@ -56018,7 +55754,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.784475301234336</v>
+        <v>1.764550659119504</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.287731302636536</v>
@@ -56107,7 +55843,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.809913595342006</v>
+        <v>1.78469558583392</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.115190200660864</v>
@@ -56196,7 +55932,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.799768752827303</v>
+        <v>1.774714419693624</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.823874694855805</v>
@@ -56285,7 +56021,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.78474363737734</v>
+        <v>1.763860899450089</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.159937176087037</v>
@@ -56374,7 +56110,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.784979815489211</v>
+        <v>1.764905490042609</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.879334643881849</v>
@@ -56463,7 +56199,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.828252203230775</v>
+        <v>1.793453436025538</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.911113531823034</v>
@@ -56552,7 +56288,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.826145308023145</v>
+        <v>1.785572726581248</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.967375954660997</v>
@@ -56641,7 +56377,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.821798356224474</v>
+        <v>1.778448854926675</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.07832879284936</v>
@@ -56730,7 +56466,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.824053796285483</v>
+        <v>1.774637025726194</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.203978445067869</v>
@@ -56819,7 +56555,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.850603619858068</v>
+        <v>1.794073188529655</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.838104617745032</v>
@@ -56908,7 +56644,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.825275701529739</v>
+        <v>1.77750166649757</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.241050948284259</v>
